--- a/bnb_data.xlsx
+++ b/bnb_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>319.97483545151</v>
+        <v>316.6984004310287</v>
       </c>
       <c r="C2" t="n">
-        <v>1029621279.670453</v>
+        <v>1009808544.603202</v>
       </c>
       <c r="D2" t="n">
-        <v>52259059529.06016</v>
+        <v>51644710407.55202</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>316.6984004310287</v>
+        <v>306.6392868905775</v>
       </c>
       <c r="C3" t="n">
-        <v>1009808544.603202</v>
+        <v>1199734459.452066</v>
       </c>
       <c r="D3" t="n">
-        <v>51644710407.55202</v>
+        <v>50100609704.51537</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-2.989852573189866</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>306.6392868905775</v>
+        <v>298.6006995468838</v>
       </c>
       <c r="C4" t="n">
-        <v>1199734459.452066</v>
+        <v>1091855502.005271</v>
       </c>
       <c r="D4" t="n">
-        <v>50100609704.51537</v>
+        <v>48825701689.01324</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-2.544695609537129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>298.6006995468838</v>
+        <v>279.9778137568797</v>
       </c>
       <c r="C5" t="n">
-        <v>1091855502.005271</v>
+        <v>1657992768.764626</v>
       </c>
       <c r="D5" t="n">
-        <v>48825701689.01324</v>
+        <v>45642954306.35766</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-6.518590153455516</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>279.9778137568797</v>
+        <v>283.656155240003</v>
       </c>
       <c r="C6" t="n">
-        <v>1657992768.764626</v>
+        <v>1246837965.585003</v>
       </c>
       <c r="D6" t="n">
-        <v>45642954306.35766</v>
+        <v>46252370172.3828</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.335180588738205</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>283.656155240003</v>
+        <v>303.0151479538937</v>
       </c>
       <c r="C7" t="n">
-        <v>1246837965.585003</v>
+        <v>1195298206.308868</v>
       </c>
       <c r="D7" t="n">
-        <v>46252370172.3828</v>
+        <v>49486226301.39337</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>6.991763053348343</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>303.0151479538937</v>
+        <v>301.1561361796223</v>
       </c>
       <c r="C8" t="n">
-        <v>1195298206.308868</v>
+        <v>1570719769.996977</v>
       </c>
       <c r="D8" t="n">
-        <v>49486226301.39337</v>
+        <v>49150485248.30302</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-0.6784535378501877</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>301.1561361796223</v>
+        <v>299.463376750775</v>
       </c>
       <c r="C9" t="n">
-        <v>1570719769.996977</v>
+        <v>1057636829.428677</v>
       </c>
       <c r="D9" t="n">
-        <v>49150485248.30302</v>
+        <v>48982780105.76501</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-0.3412075011890114</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>299.463376750775</v>
+        <v>296.4196124460399</v>
       </c>
       <c r="C10" t="n">
-        <v>1057636829.428677</v>
+        <v>838987390.2975254</v>
       </c>
       <c r="D10" t="n">
-        <v>48982780105.76501</v>
+        <v>48379260404.01617</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-1.232105855253018</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>296.4196124460399</v>
+        <v>301.8177863704008</v>
       </c>
       <c r="C11" t="n">
-        <v>838987390.2975254</v>
+        <v>805713579.376531</v>
       </c>
       <c r="D11" t="n">
-        <v>48379260404.01617</v>
+        <v>49272835871.91296</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1.847021761875922</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>301.8177863704008</v>
+        <v>279.406424179658</v>
       </c>
       <c r="C12" t="n">
-        <v>805713579.376531</v>
+        <v>1018341640.075154</v>
       </c>
       <c r="D12" t="n">
-        <v>49272835871.91296</v>
+        <v>45470473382.98042</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-7.71695483251047</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>279.406424179658</v>
+        <v>277.8541892987582</v>
       </c>
       <c r="C13" t="n">
-        <v>1018341640.075154</v>
+        <v>289644996.3800939</v>
       </c>
       <c r="D13" t="n">
-        <v>45470473382.98042</v>
+        <v>45369238899.4809</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-0.2226378481852587</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>277.8541892987582</v>
+        <v>277.7793667633549</v>
       </c>
       <c r="C14" t="n">
-        <v>289644996.3800939</v>
+        <v>419819777.671055</v>
       </c>
       <c r="D14" t="n">
-        <v>45369238899.4809</v>
+        <v>45374822894.64732</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.01230788812391914</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>277.7793667633549</v>
+        <v>286.4073846625142</v>
       </c>
       <c r="C15" t="n">
-        <v>419819777.671055</v>
+        <v>908062237.3551437</v>
       </c>
       <c r="D15" t="n">
-        <v>45374822894.64732</v>
+        <v>46716386630.32706</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2.956625833658055</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>286.4073846625142</v>
+        <v>281.2938188285588</v>
       </c>
       <c r="C16" t="n">
-        <v>908062237.3551437</v>
+        <v>364213046.876533</v>
       </c>
       <c r="D16" t="n">
-        <v>46716386630.32706</v>
+        <v>46046373619.12218</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-1.434214115288457</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>281.2938188285588</v>
+        <v>278.5787490121518</v>
       </c>
       <c r="C17" t="n">
-        <v>364213046.876533</v>
+        <v>336434858.2854408</v>
       </c>
       <c r="D17" t="n">
-        <v>46046373619.12218</v>
+        <v>45512248503.54616</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-1.159972161964584</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>278.5787490121518</v>
+        <v>278.8679869736266</v>
       </c>
       <c r="C18" t="n">
-        <v>336434858.2854408</v>
+        <v>866758763.7151389</v>
       </c>
       <c r="D18" t="n">
-        <v>45512248503.54616</v>
+        <v>45462861465.44521</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-0.1085137292153315</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>278.8679869736266</v>
+        <v>276.7779042811536</v>
       </c>
       <c r="C19" t="n">
-        <v>866758763.7151389</v>
+        <v>176346268.485361</v>
       </c>
       <c r="D19" t="n">
-        <v>45462861465.44521</v>
+        <v>45198465388.21421</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-0.581564971294124</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>276.7779042811536</v>
+        <v>277.5183102893386</v>
       </c>
       <c r="C20" t="n">
-        <v>176346268.485361</v>
+        <v>382128516.1699821</v>
       </c>
       <c r="D20" t="n">
-        <v>45198465388.21421</v>
+        <v>45346195157.02845</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.326846868683206</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>277.5183102893386</v>
+        <v>278.7530528203258</v>
       </c>
       <c r="C21" t="n">
-        <v>382128516.1699821</v>
+        <v>418828208.9843804</v>
       </c>
       <c r="D21" t="n">
-        <v>45346195157.02845</v>
+        <v>45476672064.83845</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.2877350731592232</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>278.7530528203258</v>
+        <v>276.5505628241098</v>
       </c>
       <c r="C22" t="n">
-        <v>418828208.9843804</v>
+        <v>553587755.583382</v>
       </c>
       <c r="D22" t="n">
-        <v>45476672064.83845</v>
+        <v>45101612117.56805</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-0.8247304172469994</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>276.5505628241098</v>
+        <v>264.0372712824221</v>
       </c>
       <c r="C23" t="n">
-        <v>553587755.583382</v>
+        <v>929496549.3717955</v>
       </c>
       <c r="D23" t="n">
-        <v>45101612117.56805</v>
+        <v>43155638705.5872</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-4.314642693720605</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>264.0372712824221</v>
+        <v>278.7730502021161</v>
       </c>
       <c r="C24" t="n">
-        <v>929496549.3717955</v>
+        <v>891912791.0622817</v>
       </c>
       <c r="D24" t="n">
-        <v>43155638705.5872</v>
+        <v>45453989049.39531</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>5.325724314933034</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>278.7730502021161</v>
+        <v>280.5576766239482</v>
       </c>
       <c r="C25" t="n">
-        <v>891912791.0622817</v>
+        <v>745223780.1461269</v>
       </c>
       <c r="D25" t="n">
-        <v>45453989049.39531</v>
+        <v>45796774077.41956</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.7541362929703199</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>280.5576766239482</v>
+        <v>293.0262178865758</v>
       </c>
       <c r="C26" t="n">
-        <v>745223780.1461269</v>
+        <v>1041667243.026517</v>
       </c>
       <c r="D26" t="n">
-        <v>45796774077.41956</v>
+        <v>47844370267.32543</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>4.471048957388146</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>293.0262178865758</v>
+        <v>297.5308790857409</v>
       </c>
       <c r="C27" t="n">
-        <v>1041667243.026517</v>
+        <v>578541819.4338701</v>
       </c>
       <c r="D27" t="n">
-        <v>47844370267.32543</v>
+        <v>48573687138.85062</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>1.524352536045948</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>297.5308790857409</v>
+        <v>294.7580234436541</v>
       </c>
       <c r="C28" t="n">
-        <v>578541819.4338701</v>
+        <v>475052432.7777434</v>
       </c>
       <c r="D28" t="n">
-        <v>48573687138.85062</v>
+        <v>48115913412.02448</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-0.9424314969493031</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>294.7580234436541</v>
+        <v>293.0265876719509</v>
       </c>
       <c r="C29" t="n">
-        <v>475052432.7777434</v>
+        <v>687391715.7295095</v>
       </c>
       <c r="D29" t="n">
-        <v>48115913412.02448</v>
+        <v>47815172003.76257</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-0.6250352262600067</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>293.0265876719509</v>
+        <v>277.4210837178429</v>
       </c>
       <c r="C30" t="n">
-        <v>687391715.7295095</v>
+        <v>1062897594.700359</v>
       </c>
       <c r="D30" t="n">
-        <v>47815172003.76257</v>
+        <v>45169037859.44772</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-5.53408893751679</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>277.4210837178429</v>
+        <v>279.720056949267</v>
       </c>
       <c r="C31" t="n">
-        <v>1062897594.700359</v>
+        <v>637022200.7735264</v>
       </c>
       <c r="D31" t="n">
-        <v>45169037859.44772</v>
+        <v>45617788343.9902</v>
       </c>
       <c r="E31" t="n">
-        <v>13.31175086420428</v>
+        <v>11.99838496734294</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9934913511747911</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>279.720056949267</v>
+        <v>270.7297215251866</v>
       </c>
       <c r="C32" t="n">
-        <v>637022200.7735264</v>
+        <v>880165869.7445587</v>
       </c>
       <c r="D32" t="n">
-        <v>45617788343.9902</v>
+        <v>44237559174.64366</v>
       </c>
       <c r="E32" t="n">
-        <v>11.99838496734299</v>
+        <v>10.99499500743762</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-3.0256380667529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>270.7297215251866</v>
+        <v>274.3496322710761</v>
       </c>
       <c r="C33" t="n">
-        <v>880165869.7445587</v>
+        <v>691151537.4004691</v>
       </c>
       <c r="D33" t="n">
-        <v>44237559174.64366</v>
+        <v>44781850539.36754</v>
       </c>
       <c r="E33" t="n">
-        <v>10.99499500743768</v>
+        <v>10.43786883550674</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.230382902852067</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>274.3496322710761</v>
+        <v>279.3361094045156</v>
       </c>
       <c r="C34" t="n">
-        <v>691151537.4004691</v>
+        <v>455331744.8777075</v>
       </c>
       <c r="D34" t="n">
-        <v>44781850539.36754</v>
+        <v>45616157323.82547</v>
       </c>
       <c r="E34" t="n">
-        <v>10.43786883550681</v>
+        <v>10.13464022960426</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.86304669058841</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>279.3361094045156</v>
+        <v>266.6233589428211</v>
       </c>
       <c r="C35" t="n">
-        <v>455331744.8777075</v>
+        <v>619323050.5974814</v>
       </c>
       <c r="D35" t="n">
-        <v>45616157323.82547</v>
+        <v>43523757864.66837</v>
       </c>
       <c r="E35" t="n">
-        <v>10.13464022960433</v>
+        <v>10.59791790389735</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-4.586970016574011</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>266.6233589428211</v>
+        <v>272.294397316546</v>
       </c>
       <c r="C36" t="n">
-        <v>619323050.5974814</v>
+        <v>915888746.5984051</v>
       </c>
       <c r="D36" t="n">
-        <v>43523757864.66837</v>
+        <v>44476332736.72346</v>
       </c>
       <c r="E36" t="n">
-        <v>10.59791790389742</v>
+        <v>10.79360278734243</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.188631953649334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>272.294397316546</v>
+        <v>266.308724190927</v>
       </c>
       <c r="C37" t="n">
-        <v>915888746.5984051</v>
+        <v>715084654.5573487</v>
       </c>
       <c r="D37" t="n">
-        <v>44476332736.72346</v>
+        <v>43537042604.86041</v>
       </c>
       <c r="E37" t="n">
-        <v>10.79360278734249</v>
+        <v>10.53899293611981</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.111887545727198</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>266.308724190927</v>
+        <v>264.6430723796989</v>
       </c>
       <c r="C38" t="n">
-        <v>715084654.5573487</v>
+        <v>429925394.622945</v>
       </c>
       <c r="D38" t="n">
-        <v>43537042604.86041</v>
+        <v>43192546028.95253</v>
       </c>
       <c r="E38" t="n">
-        <v>10.53899293611987</v>
+        <v>10.34564379517026</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.7912723402793143</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>264.6430723796989</v>
+        <v>275.9416807858792</v>
       </c>
       <c r="C39" t="n">
-        <v>429925394.622945</v>
+        <v>750846868.141816</v>
       </c>
       <c r="D39" t="n">
-        <v>43192546028.95253</v>
+        <v>44981567511.32132</v>
       </c>
       <c r="E39" t="n">
-        <v>10.34564379517032</v>
+        <v>9.747650423135729</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.141968109890048</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>275.9416807858792</v>
+        <v>276.544531652571</v>
       </c>
       <c r="C40" t="n">
-        <v>750846868.141816</v>
+        <v>787790763.5111085</v>
       </c>
       <c r="D40" t="n">
-        <v>44981567511.32132</v>
+        <v>45185478738.67717</v>
       </c>
       <c r="E40" t="n">
-        <v>9.747650423135799</v>
+        <v>9.249071379879073</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4533217463009276</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>276.544531652571</v>
+        <v>275.4395729408253</v>
       </c>
       <c r="C41" t="n">
-        <v>787790763.5111085</v>
+        <v>561051872.3911191</v>
       </c>
       <c r="D41" t="n">
-        <v>45185478738.67717</v>
+        <v>45005324722.63364</v>
       </c>
       <c r="E41" t="n">
-        <v>9.249071379879146</v>
+        <v>8.226022656633544</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.398698920698437</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>275.4395729408253</v>
+        <v>274.0886174359959</v>
       </c>
       <c r="C42" t="n">
-        <v>561051872.3911191</v>
+        <v>252974908.5165683</v>
       </c>
       <c r="D42" t="n">
-        <v>45005324722.63364</v>
+        <v>44725198716.43691</v>
       </c>
       <c r="E42" t="n">
-        <v>8.226022656633626</v>
+        <v>8.259958662700559</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.6224285857798773</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>274.0886174359959</v>
+        <v>275.6450211777494</v>
       </c>
       <c r="C43" t="n">
-        <v>252974908.5165683</v>
+        <v>454677112.9975738</v>
       </c>
       <c r="D43" t="n">
-        <v>44725198716.43691</v>
+        <v>44942732069.5216</v>
       </c>
       <c r="E43" t="n">
-        <v>8.259958662700642</v>
+        <v>8.272841443460578</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4863776111177831</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>275.6450211777494</v>
+        <v>272.5502043464818</v>
       </c>
       <c r="C44" t="n">
-        <v>454677112.9975738</v>
+        <v>820521273.712194</v>
       </c>
       <c r="D44" t="n">
-        <v>44942732069.5216</v>
+        <v>44501118450.60125</v>
       </c>
       <c r="E44" t="n">
-        <v>8.27284144346066</v>
+        <v>8.334919514293574</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.9826140926128435</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>272.5502043464818</v>
+        <v>281.3581608481526</v>
       </c>
       <c r="C45" t="n">
-        <v>820521273.712194</v>
+        <v>252004911.0864505</v>
       </c>
       <c r="D45" t="n">
-        <v>44501118450.60125</v>
+        <v>45985363665.71459</v>
       </c>
       <c r="E45" t="n">
-        <v>8.334919514293656</v>
+        <v>8.207979894571437</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.335298677405008</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>281.3581608481526</v>
+        <v>283.7487231415055</v>
       </c>
       <c r="C46" t="n">
-        <v>252004911.0864505</v>
+        <v>699402558.2029155</v>
       </c>
       <c r="D46" t="n">
-        <v>45985363665.71459</v>
+        <v>46295594360.01962</v>
       </c>
       <c r="E46" t="n">
-        <v>8.207979894571519</v>
+        <v>8.25643571244183</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.674629207154287</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>283.7487231415055</v>
+        <v>284.0074317083427</v>
       </c>
       <c r="C47" t="n">
-        <v>699402558.2029155</v>
+        <v>367994492.1545132</v>
       </c>
       <c r="D47" t="n">
-        <v>46295594360.01962</v>
+        <v>46399832661.6369</v>
       </c>
       <c r="E47" t="n">
-        <v>8.256435712441913</v>
+        <v>8.332102664569131</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.2251581453013962</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>284.0074317083427</v>
+        <v>282.8698124985044</v>
       </c>
       <c r="C48" t="n">
-        <v>367994492.1545132</v>
+        <v>414255338.2676184</v>
       </c>
       <c r="D48" t="n">
-        <v>46399832661.6369</v>
+        <v>46143731337.19136</v>
       </c>
       <c r="E48" t="n">
-        <v>8.332102664569213</v>
+        <v>8.377874148885484</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5519445001302414</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>282.8698124985044</v>
+        <v>284.943142563058</v>
       </c>
       <c r="C49" t="n">
-        <v>414255338.2676184</v>
+        <v>469428210.3280755</v>
       </c>
       <c r="D49" t="n">
-        <v>46143731337.19136</v>
+        <v>46627866231.39143</v>
       </c>
       <c r="E49" t="n">
-        <v>8.377874148885565</v>
+        <v>8.463476257514428</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.049188871750095</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>284.943142563058</v>
+        <v>287.0239733773218</v>
       </c>
       <c r="C50" t="n">
-        <v>469428210.3280755</v>
+        <v>605113948.824388</v>
       </c>
       <c r="D50" t="n">
-        <v>46627866231.39143</v>
+        <v>46843391805.4552</v>
       </c>
       <c r="E50" t="n">
-        <v>8.463476257514507</v>
+        <v>8.604674719621844</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4622248270899076</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>287.0239733773218</v>
+        <v>296.4786138635916</v>
       </c>
       <c r="C51" t="n">
-        <v>605113948.824388</v>
+        <v>728336449.1414783</v>
       </c>
       <c r="D51" t="n">
-        <v>46843391805.4552</v>
+        <v>48396050335.20174</v>
       </c>
       <c r="E51" t="n">
-        <v>8.604674719621924</v>
+        <v>9.193109029230401</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.31457324054345</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>296.4786138635916</v>
+        <v>293.994765712581</v>
       </c>
       <c r="C52" t="n">
-        <v>728336449.1414783</v>
+        <v>543029075.5981967</v>
       </c>
       <c r="D52" t="n">
-        <v>48396050335.20174</v>
+        <v>48013554581.76717</v>
       </c>
       <c r="E52" t="n">
-        <v>9.193109029230476</v>
+        <v>9.55487920834404</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.7903449781238803</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>293.994765712581</v>
+        <v>284.6831470938366</v>
       </c>
       <c r="C53" t="n">
-        <v>543029075.5981967</v>
+        <v>217913559.7982376</v>
       </c>
       <c r="D53" t="n">
-        <v>48013554581.76717</v>
+        <v>46461345517.54018</v>
       </c>
       <c r="E53" t="n">
-        <v>9.554879208344111</v>
+        <v>9.103920586937935</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-3.232855966919868</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>284.6831470938366</v>
+        <v>282.1380761233629</v>
       </c>
       <c r="C54" t="n">
-        <v>217913559.7982376</v>
+        <v>941674777.9664015</v>
       </c>
       <c r="D54" t="n">
-        <v>46461345517.54018</v>
+        <v>46074108670.24089</v>
       </c>
       <c r="E54" t="n">
-        <v>9.10392058693801</v>
+        <v>9.101187675776567</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.8334602517120482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>282.1380761233629</v>
+        <v>276.2000044426359</v>
       </c>
       <c r="C55" t="n">
-        <v>941674777.9664015</v>
+        <v>460043777.1393903</v>
       </c>
       <c r="D55" t="n">
-        <v>46074108670.24089</v>
+        <v>45097700498.16838</v>
       </c>
       <c r="E55" t="n">
-        <v>9.101187675776641</v>
+        <v>9.138664577742864</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-2.11921228701526</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>276.2000044426359</v>
+        <v>278.2110143445638</v>
       </c>
       <c r="C56" t="n">
-        <v>460043777.1393903</v>
+        <v>422533959.3194382</v>
       </c>
       <c r="D56" t="n">
-        <v>45097700498.16838</v>
+        <v>45353431565.52445</v>
       </c>
       <c r="E56" t="n">
-        <v>9.138664577742938</v>
+        <v>8.838300246281035</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5670601040211665</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>278.2110143445638</v>
+        <v>271.8858994634033</v>
       </c>
       <c r="C57" t="n">
-        <v>422533959.3194382</v>
+        <v>533177533.6550592</v>
       </c>
       <c r="D57" t="n">
-        <v>45353431565.52445</v>
+        <v>44486786748.7005</v>
       </c>
       <c r="E57" t="n">
-        <v>8.838300246281113</v>
+        <v>8.317813817085584</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1.910869336473175</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>271.8858994634033</v>
+        <v>271.3664308782979</v>
       </c>
       <c r="C58" t="n">
-        <v>533177533.6550592</v>
+        <v>519272843.7585784</v>
       </c>
       <c r="D58" t="n">
-        <v>44486786748.7005</v>
+        <v>44256837124.06181</v>
       </c>
       <c r="E58" t="n">
-        <v>8.317813817085666</v>
+        <v>7.897993178019952</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5168942093697115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>271.3664308782979</v>
+        <v>270.9230856875024</v>
       </c>
       <c r="C59" t="n">
-        <v>519272843.7585784</v>
+        <v>411506006.6892124</v>
       </c>
       <c r="D59" t="n">
-        <v>44256837124.06181</v>
+        <v>44244724963.92678</v>
       </c>
       <c r="E59" t="n">
-        <v>7.897993178020038</v>
+        <v>7.513133534935946</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.0273678846526737</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>270.9230856875024</v>
+        <v>271.8081703675306</v>
       </c>
       <c r="C60" t="n">
-        <v>411506006.6892124</v>
+        <v>990860816.1184701</v>
       </c>
       <c r="D60" t="n">
-        <v>44244724963.92678</v>
+        <v>44381601383.2478</v>
       </c>
       <c r="E60" t="n">
-        <v>7.513133534936037</v>
+        <v>7.590213617538143</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3093621204168562</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>271.8081703675306</v>
+        <v>269.2012020625651</v>
       </c>
       <c r="C61" t="n">
-        <v>990860816.1184701</v>
+        <v>35486912.41895256</v>
       </c>
       <c r="D61" t="n">
-        <v>44381601383.2478</v>
+        <v>43918740943.71357</v>
       </c>
       <c r="E61" t="n">
-        <v>7.590213617538233</v>
+        <v>7.727206316864819</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.042910632127247</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>269.2012020625651</v>
+        <v>268.8115135474888</v>
       </c>
       <c r="C62" t="n">
-        <v>35486912.41895256</v>
+        <v>139004435.5844978</v>
       </c>
       <c r="D62" t="n">
-        <v>43918740943.71357</v>
+        <v>43876754813.13291</v>
       </c>
       <c r="E62" t="n">
-        <v>7.727206316864907</v>
+        <v>7.790083180109711</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.09559957703356714</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>268.8115135474888</v>
+        <v>272.359699567604</v>
       </c>
       <c r="C63" t="n">
-        <v>139004435.5844978</v>
+        <v>442972907.6547107</v>
       </c>
       <c r="D63" t="n">
-        <v>43876754813.13291</v>
+        <v>44431434369.45748</v>
       </c>
       <c r="E63" t="n">
-        <v>7.790083180109798</v>
+        <v>7.822835447197297</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.264176347332202</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>272.359699567604</v>
+        <v>275.8193566256119</v>
       </c>
       <c r="C64" t="n">
-        <v>442972907.6547107</v>
+        <v>454896074.3009653</v>
       </c>
       <c r="D64" t="n">
-        <v>44431434369.45748</v>
+        <v>45002578230.53172</v>
       </c>
       <c r="E64" t="n">
-        <v>7.822835447197384</v>
+        <v>7.81370363509864</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.285449972929165</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>275.8193566256119</v>
+        <v>273.3521481197378</v>
       </c>
       <c r="C65" t="n">
-        <v>454896074.3009653</v>
+        <v>415377960.286061</v>
       </c>
       <c r="D65" t="n">
-        <v>45002578230.53172</v>
+        <v>44649912359.25301</v>
       </c>
       <c r="E65" t="n">
-        <v>7.813703635098728</v>
+        <v>7.601326581874556</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.7836570373193519</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>273.3521481197378</v>
+        <v>271.6261671230042</v>
       </c>
       <c r="C66" t="n">
-        <v>415377960.286061</v>
+        <v>196181369.3651812</v>
       </c>
       <c r="D66" t="n">
-        <v>44649912359.25301</v>
+        <v>44327023282.1657</v>
       </c>
       <c r="E66" t="n">
-        <v>7.601326581874646</v>
+        <v>7.617022727353191</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.7231572471841363</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>271.6261671230042</v>
+        <v>268.9650325136425</v>
       </c>
       <c r="C67" t="n">
-        <v>196181369.3651812</v>
+        <v>246682792.6978113</v>
       </c>
       <c r="D67" t="n">
-        <v>44327023282.1657</v>
+        <v>43919112784.57006</v>
       </c>
       <c r="E67" t="n">
-        <v>7.617022727353281</v>
+        <v>7.501426904518625</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.9202298448940938</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>268.9650325136425</v>
+        <v>269.9665399065065</v>
       </c>
       <c r="C68" t="n">
-        <v>246682792.6978113</v>
+        <v>535671514.440897</v>
       </c>
       <c r="D68" t="n">
-        <v>43919112784.57006</v>
+        <v>44082565735.12534</v>
       </c>
       <c r="E68" t="n">
-        <v>7.501426904518715</v>
+        <v>7.252466073121243</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.372168152296326</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>269.9665399065065</v>
+        <v>270.4364471259337</v>
       </c>
       <c r="C69" t="n">
-        <v>535671514.440897</v>
+        <v>111147720.3372933</v>
       </c>
       <c r="D69" t="n">
-        <v>44082565735.12534</v>
+        <v>44153416936.60568</v>
       </c>
       <c r="E69" t="n">
-        <v>7.252466073121338</v>
+        <v>7.359455724709707</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1607238605530803</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>270.4364471259337</v>
+        <v>276.0195764565233</v>
       </c>
       <c r="C70" t="n">
-        <v>111147720.3372933</v>
+        <v>425481973.7425175</v>
       </c>
       <c r="D70" t="n">
-        <v>44153416936.60568</v>
+        <v>45036253669.95473</v>
       </c>
       <c r="E70" t="n">
-        <v>7.359455724709799</v>
+        <v>7.361728315148953</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.999475453092581</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>276.0195764565233</v>
+        <v>273.6551938464967</v>
       </c>
       <c r="C71" t="n">
-        <v>425481973.7425175</v>
+        <v>468905489.6912025</v>
       </c>
       <c r="D71" t="n">
-        <v>45036253669.95473</v>
+        <v>44622894154.07484</v>
       </c>
       <c r="E71" t="n">
-        <v>7.361728315149047</v>
+        <v>7.38359633715162</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.9178372581990835</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>273.6551938464967</v>
+        <v>285.1541920271346</v>
       </c>
       <c r="C72" t="n">
-        <v>468905489.6912025</v>
+        <v>908333564.2418987</v>
       </c>
       <c r="D72" t="n">
-        <v>44622894154.07484</v>
+        <v>46656222265.68989</v>
       </c>
       <c r="E72" t="n">
-        <v>7.383596337151713</v>
+        <v>7.501467611293511</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.55669259056648</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>285.1541920271346</v>
+        <v>290.2230866189964</v>
       </c>
       <c r="C73" t="n">
-        <v>908333564.2418987</v>
+        <v>305360483.0617116</v>
       </c>
       <c r="D73" t="n">
-        <v>46656222265.68989</v>
+        <v>47393552587.29484</v>
       </c>
       <c r="E73" t="n">
-        <v>7.501467611293601</v>
+        <v>7.841189689855298</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.580347241587909</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>290.2230866189964</v>
+        <v>287.011074547805</v>
       </c>
       <c r="C74" t="n">
-        <v>305360483.0617116</v>
+        <v>498014882.6451063</v>
       </c>
       <c r="D74" t="n">
-        <v>47393552587.29484</v>
+        <v>46874589626.86172</v>
       </c>
       <c r="E74" t="n">
-        <v>7.841189689855385</v>
+        <v>7.938955372313926</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-1.095007510730972</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>287.011074547805</v>
+        <v>297.7043587519211</v>
       </c>
       <c r="C75" t="n">
-        <v>498014882.6451063</v>
+        <v>244128552.4417486</v>
       </c>
       <c r="D75" t="n">
-        <v>46874589626.86172</v>
+        <v>48606139721.35658</v>
       </c>
       <c r="E75" t="n">
-        <v>7.938955372314012</v>
+        <v>8.670881590884587</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.694005874565742</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>297.7043587519211</v>
+        <v>303.65754404105</v>
       </c>
       <c r="C76" t="n">
-        <v>244128552.4417486</v>
+        <v>1434607961.583603</v>
       </c>
       <c r="D76" t="n">
-        <v>48606139721.35658</v>
+        <v>49556125469.52814</v>
       </c>
       <c r="E76" t="n">
-        <v>8.670881590884667</v>
+        <v>9.741120166808132</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.954456275724681</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>303.65754404105</v>
+        <v>313.6005607990022</v>
       </c>
       <c r="C77" t="n">
-        <v>1434607961.583603</v>
+        <v>1619397557.466431</v>
       </c>
       <c r="D77" t="n">
-        <v>49556125469.52814</v>
+        <v>51110669155.77377</v>
       </c>
       <c r="E77" t="n">
-        <v>9.741120166808203</v>
+        <v>11.52850809113396</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3.136935487826831</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>313.6005607990022</v>
+        <v>326.321496554751</v>
       </c>
       <c r="C78" t="n">
-        <v>1619397557.466431</v>
+        <v>2574887906.367027</v>
       </c>
       <c r="D78" t="n">
-        <v>51110669155.77377</v>
+        <v>53528392691.56975</v>
       </c>
       <c r="E78" t="n">
-        <v>11.52850809113402</v>
+        <v>14.22795078958593</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4.730369560271863</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>326.321496554751</v>
+        <v>324.6941770374553</v>
       </c>
       <c r="C79" t="n">
-        <v>2574887906.367027</v>
+        <v>2472618806.688667</v>
       </c>
       <c r="D79" t="n">
-        <v>53528392691.56975</v>
+        <v>53045918785.69489</v>
       </c>
       <c r="E79" t="n">
-        <v>14.22795078958598</v>
+        <v>16.21267792880824</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.901342038523123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>324.6941770374553</v>
+        <v>320.2613946314507</v>
       </c>
       <c r="C80" t="n">
-        <v>2472618806.688667</v>
+        <v>2441288353.739577</v>
       </c>
       <c r="D80" t="n">
-        <v>53045918785.69489</v>
+        <v>52253322651.63208</v>
       </c>
       <c r="E80" t="n">
-        <v>16.21267792880828</v>
+        <v>17.54660572632788</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-1.494169866799544</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>320.2613946314507</v>
+        <v>329.5846389937549</v>
       </c>
       <c r="C81" t="n">
-        <v>2441288353.739577</v>
+        <v>2914407353.452439</v>
       </c>
       <c r="D81" t="n">
-        <v>52253322651.63208</v>
+        <v>53729673248.89722</v>
       </c>
       <c r="E81" t="n">
-        <v>17.54660572632791</v>
+        <v>19.27822150542704</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.825371712929781</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>329.5846389937549</v>
+        <v>352.9461579035513</v>
       </c>
       <c r="C82" t="n">
-        <v>2914407353.452439</v>
+        <v>482084447.3973793</v>
       </c>
       <c r="D82" t="n">
-        <v>53729673248.89722</v>
+        <v>57629043552.57033</v>
       </c>
       <c r="E82" t="n">
-        <v>19.27822150542707</v>
+        <v>22.83418940471675</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7.257386966806356</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>352.9461579035513</v>
+        <v>348.7036124668236</v>
       </c>
       <c r="C83" t="n">
-        <v>482084447.3973793</v>
+        <v>86762244.5546612</v>
       </c>
       <c r="D83" t="n">
-        <v>57629043552.57033</v>
+        <v>56955128372.17605</v>
       </c>
       <c r="E83" t="n">
-        <v>22.83418940471678</v>
+        <v>25.39795113915335</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-1.169401987002472</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>348.7036124668236</v>
+        <v>340.8931520879805</v>
       </c>
       <c r="C84" t="n">
-        <v>86762244.5546612</v>
+        <v>1951301965.100132</v>
       </c>
       <c r="D84" t="n">
-        <v>56955128372.17605</v>
+        <v>55830055509.25134</v>
       </c>
       <c r="E84" t="n">
-        <v>25.39795113915338</v>
+        <v>27.00498545044778</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-1.975367091744329</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>340.8931520879805</v>
+        <v>337.0016536650197</v>
       </c>
       <c r="C85" t="n">
-        <v>1951301965.100132</v>
+        <v>3463407069.567359</v>
       </c>
       <c r="D85" t="n">
-        <v>55830055509.25134</v>
+        <v>54937029725.69119</v>
       </c>
       <c r="E85" t="n">
-        <v>27.0049854504478</v>
+        <v>28.06156948087419</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-1.599543069435372</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>337.0016536650197</v>
+        <v>330.6993295780715</v>
       </c>
       <c r="C86" t="n">
-        <v>3463407069.567359</v>
+        <v>2457633082.556192</v>
       </c>
       <c r="D86" t="n">
-        <v>54937029725.69119</v>
+        <v>54109010974.71479</v>
       </c>
       <c r="E86" t="n">
-        <v>28.06156948087421</v>
+        <v>28.68931752406921</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-1.507214268974544</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>330.6993295780715</v>
+        <v>264.0156828418253</v>
       </c>
       <c r="C87" t="n">
-        <v>2457633082.556192</v>
+        <v>2967391235.064065</v>
       </c>
       <c r="D87" t="n">
-        <v>54109010974.71479</v>
+        <v>43045983596.49625</v>
       </c>
       <c r="E87" t="n">
-        <v>28.68931752406924</v>
+        <v>28.94740828444061</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-20.44581332929612</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>264.0156828418253</v>
+        <v>303.54990812229</v>
       </c>
       <c r="C88" t="n">
-        <v>2967391235.064065</v>
+        <v>2829805459.072689</v>
       </c>
       <c r="D88" t="n">
-        <v>43045983596.49625</v>
+        <v>49453629190.09885</v>
       </c>
       <c r="E88" t="n">
-        <v>28.94740828444064</v>
+        <v>28.62727041863691</v>
+      </c>
+      <c r="F88" t="n">
+        <v>14.88558294698639</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>303.54990812229</v>
+        <v>291.0495603067069</v>
       </c>
       <c r="C89" t="n">
-        <v>2829805459.072689</v>
+        <v>1822439188.110564</v>
       </c>
       <c r="D89" t="n">
-        <v>49453629190.09885</v>
+        <v>47348254051.62744</v>
       </c>
       <c r="E89" t="n">
-        <v>28.62727041863693</v>
+        <v>28.24536580147536</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-4.257271251778894</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>291.0495603067069</v>
+        <v>281.7789703851029</v>
       </c>
       <c r="C90" t="n">
-        <v>1822439188.110564</v>
+        <v>1319689080.539842</v>
       </c>
       <c r="D90" t="n">
-        <v>47348254051.62744</v>
+        <v>45956774660.47869</v>
       </c>
       <c r="E90" t="n">
-        <v>28.24536580147539</v>
+        <v>27.99665047938496</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-2.938818799171583</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>281.7789703851029</v>
+        <v>276.6320889673084</v>
       </c>
       <c r="C91" t="n">
-        <v>1319689080.539842</v>
+        <v>1029304209.204468</v>
       </c>
       <c r="D91" t="n">
-        <v>45956774660.47869</v>
+        <v>45079657180.48735</v>
       </c>
       <c r="E91" t="n">
-        <v>27.99665047938499</v>
+        <v>27.77142464666369</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-1.908570578486724</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>276.6320889673084</v>
+        <v>278.4039728101451</v>
       </c>
       <c r="C92" t="n">
-        <v>1029304209.204468</v>
+        <v>1587096552.131085</v>
       </c>
       <c r="D92" t="n">
-        <v>45079657180.48735</v>
+        <v>45595436003.94707</v>
       </c>
       <c r="E92" t="n">
-        <v>27.77142464666372</v>
+        <v>27.48285672136398</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.144149835467179</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>278.4039728101451</v>
+        <v>277.1353122741133</v>
       </c>
       <c r="C93" t="n">
-        <v>1587096552.131085</v>
+        <v>1056184721.126081</v>
       </c>
       <c r="D93" t="n">
-        <v>45595436003.94707</v>
+        <v>45276634124.73127</v>
       </c>
       <c r="E93" t="n">
-        <v>27.48285672136401</v>
+        <v>27.34347986025312</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.699196909068267</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>277.1353122741133</v>
+        <v>272.2546584460202</v>
       </c>
       <c r="C94" t="n">
-        <v>1056184721.126081</v>
+        <v>895350350.8859801</v>
       </c>
       <c r="D94" t="n">
-        <v>45276634124.73127</v>
+        <v>44379314946.52611</v>
       </c>
       <c r="E94" t="n">
-        <v>27.34347986025315</v>
+        <v>27.45085507155227</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-1.981859286918641</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>272.2546584460202</v>
+        <v>268.1498563455098</v>
       </c>
       <c r="C95" t="n">
-        <v>895350350.8859801</v>
+        <v>589270203.0939227</v>
       </c>
       <c r="D95" t="n">
-        <v>44379314946.52611</v>
+        <v>43762525622.32037</v>
       </c>
       <c r="E95" t="n">
-        <v>27.45085507155229</v>
+        <v>27.62720361782208</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1.389812629935638</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>268.1498563455098</v>
+        <v>274.0765267565594</v>
       </c>
       <c r="C96" t="n">
-        <v>589270203.0939227</v>
+        <v>593920125.1880074</v>
       </c>
       <c r="D96" t="n">
-        <v>43762525622.32037</v>
+        <v>44733949104.93774</v>
       </c>
       <c r="E96" t="n">
-        <v>27.62720361782211</v>
+        <v>27.55086434369188</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.219761014254407</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>274.0765267565594</v>
+        <v>272.3602662535667</v>
       </c>
       <c r="C97" t="n">
-        <v>593920125.1880074</v>
+        <v>316487894.5957716</v>
       </c>
       <c r="D97" t="n">
-        <v>44733949104.93774</v>
+        <v>44498964733.00458</v>
       </c>
       <c r="E97" t="n">
-        <v>27.5508643436919</v>
+        <v>27.43498306303436</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.5252931534882599</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>272.3602662535667</v>
+        <v>264.4027388861473</v>
       </c>
       <c r="C98" t="n">
-        <v>316487894.5957716</v>
+        <v>476496983.5938403</v>
       </c>
       <c r="D98" t="n">
-        <v>44498964733.00458</v>
+        <v>43149905938.59148</v>
       </c>
       <c r="E98" t="n">
-        <v>27.43498306303438</v>
+        <v>27.6485181078776</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-3.031663326343648</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>264.4027388861473</v>
+        <v>254.4035051761661</v>
       </c>
       <c r="C99" t="n">
-        <v>476496983.5938403</v>
+        <v>1157275624.890331</v>
       </c>
       <c r="D99" t="n">
-        <v>43149905938.59148</v>
+        <v>41538741493.90912</v>
       </c>
       <c r="E99" t="n">
-        <v>27.64851810787762</v>
+        <v>28.34088354368619</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-3.733877072583391</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>254.4035051761661</v>
+        <v>266.3599557842051</v>
       </c>
       <c r="C100" t="n">
-        <v>1157275624.890331</v>
+        <v>787412866.2498643</v>
       </c>
       <c r="D100" t="n">
-        <v>41538741493.90912</v>
+        <v>43586685572.44545</v>
       </c>
       <c r="E100" t="n">
-        <v>28.34088354368622</v>
+        <v>28.64321194053126</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4.93020251669547</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>266.3599557842051</v>
+        <v>297.7527534388007</v>
       </c>
       <c r="C101" t="n">
-        <v>787412866.2498643</v>
+        <v>218835082.8869719</v>
       </c>
       <c r="D101" t="n">
-        <v>43586685572.44545</v>
+        <v>48702064859.94381</v>
       </c>
       <c r="E101" t="n">
-        <v>28.64321194053129</v>
+        <v>28.30506871183287</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11.73610523561395</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>297.7527534388007</v>
+        <v>300.7303265004611</v>
       </c>
       <c r="C102" t="n">
-        <v>218835082.8869719</v>
+        <v>1002366660.178112</v>
       </c>
       <c r="D102" t="n">
-        <v>48702064859.94381</v>
+        <v>49040106669.95617</v>
       </c>
       <c r="E102" t="n">
-        <v>28.3050687118329</v>
+        <v>28.2098387644229</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.6941015970975517</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>300.7303265004611</v>
+        <v>300.8092123894143</v>
       </c>
       <c r="C103" t="n">
-        <v>1002366660.178112</v>
+        <v>598170272.4300721</v>
       </c>
       <c r="D103" t="n">
-        <v>49040106669.95617</v>
+        <v>49109400047.8331</v>
       </c>
       <c r="E103" t="n">
-        <v>28.20983876442293</v>
+        <v>28.17264723535162</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.141299402840378</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>300.8092123894143</v>
+        <v>311.2445993342943</v>
       </c>
       <c r="C104" t="n">
-        <v>598170272.4300721</v>
+        <v>1394413989.773592</v>
       </c>
       <c r="D104" t="n">
-        <v>49109400047.8331</v>
+        <v>50825864029.50319</v>
       </c>
       <c r="E104" t="n">
-        <v>28.17264723535164</v>
+        <v>28.17736684995802</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.495184180621713</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>311.2445993342943</v>
+        <v>307.5693272734675</v>
       </c>
       <c r="C105" t="n">
-        <v>1394413989.773592</v>
+        <v>794833046.1837469</v>
       </c>
       <c r="D105" t="n">
-        <v>50825864029.50319</v>
+        <v>50254569003.80592</v>
       </c>
       <c r="E105" t="n">
-        <v>28.17736684995805</v>
+        <v>28.21476471089458</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-1.124024227833398</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>307.5693272734675</v>
+        <v>293.6495788135911</v>
       </c>
       <c r="C106" t="n">
-        <v>794833046.1837469</v>
+        <v>1291367056.092033</v>
       </c>
       <c r="D106" t="n">
-        <v>50254569003.80592</v>
+        <v>47949642740.82927</v>
       </c>
       <c r="E106" t="n">
-        <v>28.21476471089461</v>
+        <v>28.22553925977135</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-4.586500906618241</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>293.6495788135911</v>
+        <v>296.4125819335669</v>
       </c>
       <c r="C107" t="n">
-        <v>1291367056.092033</v>
+        <v>136503299.8362147</v>
       </c>
       <c r="D107" t="n">
-        <v>47949642740.82927</v>
+        <v>48390045094.95107</v>
       </c>
       <c r="E107" t="n">
-        <v>28.22553925977137</v>
+        <v>28.100844462462</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9184684784873109</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>296.4125819335669</v>
+        <v>301.7061657168574</v>
       </c>
       <c r="C108" t="n">
-        <v>136503299.8362147</v>
+        <v>944822626.0801915</v>
       </c>
       <c r="D108" t="n">
-        <v>48390045094.95107</v>
+        <v>49274297384.45461</v>
       </c>
       <c r="E108" t="n">
-        <v>28.10084446246203</v>
+        <v>27.62472101200714</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.827343388022173</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>301.7061657168574</v>
+        <v>292.0902464905152</v>
       </c>
       <c r="C109" t="n">
-        <v>944822626.0801915</v>
+        <v>1718187301.189577</v>
       </c>
       <c r="D109" t="n">
-        <v>49274297384.45461</v>
+        <v>47684754833.26964</v>
       </c>
       <c r="E109" t="n">
-        <v>27.62472101200716</v>
+        <v>27.17495886632509</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-3.225906071846796</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>292.0902464905152</v>
+        <v>292.771285723617</v>
       </c>
       <c r="C110" t="n">
-        <v>1718187301.189577</v>
+        <v>49427730.58518304</v>
       </c>
       <c r="D110" t="n">
-        <v>47684754833.26964</v>
+        <v>47789712925.8789</v>
       </c>
       <c r="E110" t="n">
-        <v>27.17495886632512</v>
+        <v>26.82079248140682</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.2201082777425256</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>292.771285723617</v>
+        <v>291.0209683080699</v>
       </c>
       <c r="C111" t="n">
-        <v>49427730.58518304</v>
+        <v>703884125.0602776</v>
       </c>
       <c r="D111" t="n">
-        <v>47789712925.8789</v>
+        <v>47591443112.12832</v>
       </c>
       <c r="E111" t="n">
-        <v>26.82079248140684</v>
+        <v>26.06779369323371</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.4148796919079545</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>291.0209683080699</v>
+        <v>292.5518415253399</v>
       </c>
       <c r="C112" t="n">
-        <v>703884125.0602776</v>
+        <v>665815594.1316248</v>
       </c>
       <c r="D112" t="n">
-        <v>47591443112.12832</v>
+        <v>47722863606.6815</v>
       </c>
       <c r="E112" t="n">
-        <v>26.06779369323374</v>
+        <v>23.63155985851766</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.2761431172480844</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>292.5518415253399</v>
+        <v>288.5889338085163</v>
       </c>
       <c r="C113" t="n">
-        <v>665815594.1316248</v>
+        <v>721593433.6776474</v>
       </c>
       <c r="D113" t="n">
-        <v>47722863606.6815</v>
+        <v>47134321600.0522</v>
       </c>
       <c r="E113" t="n">
-        <v>23.63155985851769</v>
+        <v>21.13325325779732</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-1.233249562473659</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>288.5889338085163</v>
+        <v>290.1949343288683</v>
       </c>
       <c r="C114" t="n">
-        <v>721593433.6776474</v>
+        <v>641666867.278448</v>
       </c>
       <c r="D114" t="n">
-        <v>47134321600.0522</v>
+        <v>47388136404.34783</v>
       </c>
       <c r="E114" t="n">
-        <v>21.13325325779735</v>
+        <v>18.88612214341808</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.5384925372413862</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>290.1949343288683</v>
+        <v>284.4590071248974</v>
       </c>
       <c r="C115" t="n">
-        <v>641666867.278448</v>
+        <v>775412065.210586</v>
       </c>
       <c r="D115" t="n">
-        <v>47388136404.34783</v>
+        <v>46475738118.34146</v>
       </c>
       <c r="E115" t="n">
-        <v>18.88612214341812</v>
+        <v>16.57387018492446</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-1.9253727941972</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>284.4590071248974</v>
+        <v>290.5197165429423</v>
       </c>
       <c r="C116" t="n">
-        <v>775412065.210586</v>
+        <v>720497813.0594383</v>
       </c>
       <c r="D116" t="n">
-        <v>46475738118.34146</v>
+        <v>47360717202.43943</v>
       </c>
       <c r="E116" t="n">
-        <v>16.57387018492451</v>
+        <v>14.4237889445162</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.90417434973178</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>290.5197165429423</v>
+        <v>286.2323126178291</v>
       </c>
       <c r="C117" t="n">
-        <v>720497813.0594383</v>
+        <v>639138700.9697437</v>
       </c>
       <c r="D117" t="n">
-        <v>47360717202.43943</v>
+        <v>46755914537.07679</v>
       </c>
       <c r="E117" t="n">
-        <v>14.42378894451626</v>
+        <v>13.81975843238637</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-1.277013316283748</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>286.2323126178291</v>
+        <v>288.0232700990562</v>
       </c>
       <c r="C118" t="n">
-        <v>639138700.9697437</v>
+        <v>439505796.9913464</v>
       </c>
       <c r="D118" t="n">
-        <v>46755914537.07679</v>
+        <v>46979017087.12093</v>
       </c>
       <c r="E118" t="n">
-        <v>13.81975843238643</v>
+        <v>13.4499939053779</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.4771643379303692</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>288.0232700990562</v>
+        <v>284.4874611576896</v>
       </c>
       <c r="C119" t="n">
-        <v>439505796.9913464</v>
+        <v>356251072.1908475</v>
       </c>
       <c r="D119" t="n">
-        <v>46979017087.12093</v>
+        <v>46459874594.12394</v>
       </c>
       <c r="E119" t="n">
-        <v>13.44999390537796</v>
+        <v>13.4202379751261</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-1.105051840557358</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>284.4874611576896</v>
+        <v>276.950700638716</v>
       </c>
       <c r="C120" t="n">
-        <v>356251072.1908475</v>
+        <v>308501680.8134503</v>
       </c>
       <c r="D120" t="n">
-        <v>46459874594.12394</v>
+        <v>45247815338.55446</v>
       </c>
       <c r="E120" t="n">
-        <v>13.42023797512616</v>
+        <v>13.49998411755058</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-2.608830235032056</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>276.950700638716</v>
+        <v>272.0881885344604</v>
       </c>
       <c r="C121" t="n">
-        <v>308501680.8134503</v>
+        <v>1038027779.454247</v>
       </c>
       <c r="D121" t="n">
-        <v>45247815338.55446</v>
+        <v>44442840988.66696</v>
       </c>
       <c r="E121" t="n">
-        <v>13.49998411755063</v>
+        <v>13.63045490336035</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-1.779034730990869</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>272.0881885344604</v>
+        <v>268.2791961692552</v>
       </c>
       <c r="C122" t="n">
-        <v>1038027779.454247</v>
+        <v>1230823034.113096</v>
       </c>
       <c r="D122" t="n">
-        <v>44442840988.66696</v>
+        <v>43816838361.29269</v>
       </c>
       <c r="E122" t="n">
-        <v>13.6304549033604</v>
+        <v>13.93617875930061</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-1.408556729156685</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>268.2791961692552</v>
+        <v>257.2922574790732</v>
       </c>
       <c r="C123" t="n">
-        <v>1230823034.113096</v>
+        <v>496922718.9182019</v>
       </c>
       <c r="D123" t="n">
-        <v>43816838361.29269</v>
+        <v>42062237375.5205</v>
       </c>
       <c r="E123" t="n">
-        <v>13.93617875930066</v>
+        <v>14.77959976905245</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-4.004398882695703</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>257.2922574790732</v>
+        <v>227.8584841381303</v>
       </c>
       <c r="C124" t="n">
-        <v>496922718.9182019</v>
+        <v>99313763.61134356</v>
       </c>
       <c r="D124" t="n">
-        <v>42062237375.5205</v>
+        <v>37108234937.80479</v>
       </c>
       <c r="E124" t="n">
-        <v>14.7795997690525</v>
+        <v>17.94096830611193</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-11.77779107061683</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>227.8584841381303</v>
+        <v>242.8282062225387</v>
       </c>
       <c r="C125" t="n">
-        <v>99313763.61134356</v>
+        <v>1505549357.410455</v>
       </c>
       <c r="D125" t="n">
-        <v>37108234937.80479</v>
+        <v>39515739967.7281</v>
       </c>
       <c r="E125" t="n">
-        <v>17.94096830611197</v>
+        <v>19.21876847638304</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6.487791817526212</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>242.8282062225387</v>
+        <v>251.6452571218564</v>
       </c>
       <c r="C126" t="n">
-        <v>1505549357.410455</v>
+        <v>360672453.9402443</v>
       </c>
       <c r="D126" t="n">
-        <v>39515739967.7281</v>
+        <v>41190139611.41653</v>
       </c>
       <c r="E126" t="n">
-        <v>19.21876847638308</v>
+        <v>19.96968753857214</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4.23729796039729</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>251.6452571218564</v>
+        <v>241.1915050921715</v>
       </c>
       <c r="C127" t="n">
-        <v>360672453.9402443</v>
+        <v>384674162.9652159</v>
       </c>
       <c r="D127" t="n">
-        <v>41190139611.41653</v>
+        <v>39390259950.2684</v>
       </c>
       <c r="E127" t="n">
-        <v>19.96968753857217</v>
+        <v>21.23295242822892</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-4.369685750347074</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>241.1915050921715</v>
+        <v>251.6756574578422</v>
       </c>
       <c r="C128" t="n">
-        <v>384674162.9652159</v>
+        <v>692548471.7673858</v>
       </c>
       <c r="D128" t="n">
-        <v>39390259950.2684</v>
+        <v>41087025961.70686</v>
       </c>
       <c r="E128" t="n">
-        <v>21.23295242822896</v>
+        <v>21.68733947388265</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4.307577592990475</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>251.6756574578422</v>
+        <v>245.8370886871489</v>
       </c>
       <c r="C129" t="n">
-        <v>692548471.7673858</v>
+        <v>521176570.2216157</v>
       </c>
       <c r="D129" t="n">
-        <v>41087025961.70686</v>
+        <v>40173092497.50436</v>
       </c>
       <c r="E129" t="n">
-        <v>21.68733947388268</v>
+        <v>22.08927834278179</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-2.2243845661993</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>245.8370886871489</v>
+        <v>245.9486333281813</v>
       </c>
       <c r="C130" t="n">
-        <v>521176570.2216157</v>
+        <v>556887080.5039829</v>
       </c>
       <c r="D130" t="n">
-        <v>40173092497.50436</v>
+        <v>40140034038.02163</v>
       </c>
       <c r="E130" t="n">
-        <v>22.08927834278182</v>
+        <v>22.818578974117</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.08229005393294297</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>245.9486333281813</v>
+        <v>246.2201693741642</v>
       </c>
       <c r="C131" t="n">
-        <v>556887080.5039829</v>
+        <v>381696111.396362</v>
       </c>
       <c r="D131" t="n">
-        <v>40140034038.02163</v>
+        <v>40196349507.10237</v>
       </c>
       <c r="E131" t="n">
-        <v>22.81857897411703</v>
+        <v>23.29906663082353</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.140297512023535</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>246.2201693741642</v>
+        <v>244.7422939771148</v>
       </c>
       <c r="C132" t="n">
-        <v>381696111.396362</v>
+        <v>263445842.7330322</v>
       </c>
       <c r="D132" t="n">
-        <v>40196349507.10237</v>
+        <v>39956711780.80908</v>
       </c>
       <c r="E132" t="n">
-        <v>23.29906663082356</v>
+        <v>23.60310501679317</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.5961678839789819</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>244.7422939771148</v>
+        <v>243.3434175145285</v>
       </c>
       <c r="C133" t="n">
-        <v>263445842.7330322</v>
+        <v>280337157.315761</v>
       </c>
       <c r="D133" t="n">
-        <v>39956711780.80908</v>
+        <v>39699718822.07658</v>
       </c>
       <c r="E133" t="n">
-        <v>23.6031050167932</v>
+        <v>23.80892168644418</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.6431784480722236</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>243.3434175145285</v>
+        <v>243.7505179754317</v>
       </c>
       <c r="C134" t="n">
-        <v>280337157.315761</v>
+        <v>268504876.4434729</v>
       </c>
       <c r="D134" t="n">
-        <v>39699718822.07658</v>
+        <v>39767865335.13547</v>
       </c>
       <c r="E134" t="n">
-        <v>23.80892168644422</v>
+        <v>23.31087519773008</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.1716549010442492</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>243.7505179754317</v>
+        <v>246.4446184286099</v>
       </c>
       <c r="C135" t="n">
-        <v>268504876.4434729</v>
+        <v>307601730.4246439</v>
       </c>
       <c r="D135" t="n">
-        <v>39767865335.13547</v>
+        <v>40184438105.08241</v>
       </c>
       <c r="E135" t="n">
-        <v>23.31087519773012</v>
+        <v>22.69747179923717</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.047511015329472</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>246.4446184286099</v>
+        <v>244.0344597751294</v>
       </c>
       <c r="C136" t="n">
-        <v>307601730.4246439</v>
+        <v>145440839.4354433</v>
       </c>
       <c r="D136" t="n">
-        <v>40184438105.08241</v>
+        <v>39817009960.2575</v>
       </c>
       <c r="E136" t="n">
-        <v>22.69747179923721</v>
+        <v>22.66915350137462</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.9143543176193702</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>244.0344597751294</v>
+        <v>246.4507580710424</v>
       </c>
       <c r="C137" t="n">
-        <v>145440839.4354433</v>
+        <v>148453239.2470947</v>
       </c>
       <c r="D137" t="n">
-        <v>39817009960.2575</v>
+        <v>40230209465.18819</v>
       </c>
       <c r="E137" t="n">
-        <v>22.66915350137465</v>
+        <v>22.31491389792678</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.037746192753075</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>246.4507580710424</v>
+        <v>245.8378112466795</v>
       </c>
       <c r="C138" t="n">
-        <v>148453239.2470947</v>
+        <v>298665936.5155211</v>
       </c>
       <c r="D138" t="n">
-        <v>40230209465.18819</v>
+        <v>40164375080.41413</v>
       </c>
       <c r="E138" t="n">
-        <v>22.31491389792682</v>
+        <v>21.5481579462202</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.1636441511223663</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>245.8378112466795</v>
+        <v>246.6593612057421</v>
       </c>
       <c r="C139" t="n">
-        <v>298665936.5155211</v>
+        <v>17764481.56858248</v>
       </c>
       <c r="D139" t="n">
-        <v>40164375080.41413</v>
+        <v>40273794261.84196</v>
       </c>
       <c r="E139" t="n">
-        <v>21.54815794622023</v>
+        <v>21.10595705160117</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.2724284423914369</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>246.6593612057421</v>
+        <v>244.0645673430371</v>
       </c>
       <c r="C140" t="n">
-        <v>17764481.56858248</v>
+        <v>230405872.6066344</v>
       </c>
       <c r="D140" t="n">
-        <v>40273794261.84196</v>
+        <v>39852514893.71858</v>
       </c>
       <c r="E140" t="n">
-        <v>21.10595705160121</v>
+        <v>20.57142823527305</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-1.046038437263719</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>244.0645673430371</v>
+        <v>245.4297562824263</v>
       </c>
       <c r="C141" t="n">
-        <v>230405872.6066344</v>
+        <v>393346445.6155974</v>
       </c>
       <c r="D141" t="n">
-        <v>39852514893.71858</v>
+        <v>40136162128.66296</v>
       </c>
       <c r="E141" t="n">
-        <v>20.57142823527309</v>
+        <v>19.94980675682307</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.7117423723467242</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>245.4297562824263</v>
+        <v>246.21147125205</v>
       </c>
       <c r="C142" t="n">
-        <v>393346445.6155974</v>
+        <v>256645348.8491133</v>
       </c>
       <c r="D142" t="n">
-        <v>40136162128.66296</v>
+        <v>40194802590.74165</v>
       </c>
       <c r="E142" t="n">
-        <v>19.9498067568231</v>
+        <v>19.07353956428921</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.1461038100521339</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>246.21147125205</v>
+        <v>259.1281164883573</v>
       </c>
       <c r="C143" t="n">
-        <v>256645348.8491133</v>
+        <v>713673930.4726129</v>
       </c>
       <c r="D143" t="n">
-        <v>40194802590.74165</v>
+        <v>42262890456.74842</v>
       </c>
       <c r="E143" t="n">
-        <v>19.07353956428924</v>
+        <v>18.17684518138745</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5.145162390928459</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>259.1281164883573</v>
+        <v>256.4740131558113</v>
       </c>
       <c r="C144" t="n">
-        <v>713673930.4726129</v>
+        <v>167603342.740573</v>
       </c>
       <c r="D144" t="n">
-        <v>42262890456.74842</v>
+        <v>41882966204.59969</v>
       </c>
       <c r="E144" t="n">
-        <v>18.1768451813875</v>
+        <v>17.05682477070512</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.8989547284692923</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>256.4740131558113</v>
+        <v>259.8006381970208</v>
       </c>
       <c r="C145" t="n">
-        <v>167603342.740573</v>
+        <v>453907517.4154086</v>
       </c>
       <c r="D145" t="n">
-        <v>41882966204.59969</v>
+        <v>42404102106.1897</v>
       </c>
       <c r="E145" t="n">
-        <v>17.05682477070517</v>
+        <v>16.20099979460361</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.24426693908033</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>259.8006381970208</v>
+        <v>261.3192647814156</v>
       </c>
       <c r="C146" t="n">
-        <v>453907517.4154086</v>
+        <v>302718780.577068</v>
       </c>
       <c r="D146" t="n">
-        <v>42404102106.1897</v>
+        <v>42647994854.98575</v>
       </c>
       <c r="E146" t="n">
-        <v>16.20099979460366</v>
+        <v>14.80969999028488</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.5751631014029757</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>261.3192647814156</v>
+        <v>273.5360287992222</v>
       </c>
       <c r="C147" t="n">
-        <v>302718780.577068</v>
+        <v>406080943.0271544</v>
       </c>
       <c r="D147" t="n">
-        <v>42647994854.98575</v>
+        <v>44656906521.32682</v>
       </c>
       <c r="E147" t="n">
-        <v>14.80969999028493</v>
+        <v>14.01730654413564</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.710448107049103</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>273.5360287992222</v>
+        <v>272.7257012383818</v>
       </c>
       <c r="C148" t="n">
-        <v>406080943.0271544</v>
+        <v>967672469.9870036</v>
       </c>
       <c r="D148" t="n">
-        <v>44656906521.32682</v>
+        <v>44542012427.26017</v>
       </c>
       <c r="E148" t="n">
-        <v>14.01730654413569</v>
+        <v>12.95966728598876</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.257281802562348</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>272.7257012383818</v>
+        <v>277.0990113573562</v>
       </c>
       <c r="C149" t="n">
-        <v>967672469.9870036</v>
+        <v>577193155.0085815</v>
       </c>
       <c r="D149" t="n">
-        <v>44542012427.26017</v>
+        <v>45318222265.86942</v>
       </c>
       <c r="E149" t="n">
-        <v>12.95966728598882</v>
+        <v>12.40026394837036</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.742646540447268</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>277.0990113573562</v>
+        <v>285.4685940120304</v>
       </c>
       <c r="C150" t="n">
-        <v>577193155.0085815</v>
+        <v>644490450.4389521</v>
       </c>
       <c r="D150" t="n">
-        <v>45318222265.86942</v>
+        <v>46586461239.24654</v>
       </c>
       <c r="E150" t="n">
-        <v>12.40026394837042</v>
+        <v>13.05201744653316</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.798518807592942</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>285.4685940120304</v>
+        <v>287.3858882093879</v>
       </c>
       <c r="C151" t="n">
-        <v>644490450.4389521</v>
+        <v>572474025.189221</v>
       </c>
       <c r="D151" t="n">
-        <v>46586461239.24654</v>
+        <v>46937912182.31921</v>
       </c>
       <c r="E151" t="n">
-        <v>13.05201744653321</v>
+        <v>14.07746684379148</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.7544057516362335</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>287.3858882093879</v>
+        <v>294.1442843030924</v>
       </c>
       <c r="C152" t="n">
-        <v>572474025.189221</v>
+        <v>741863436.7457082</v>
       </c>
       <c r="D152" t="n">
-        <v>46937912182.31921</v>
+        <v>47947758393.05579</v>
       </c>
       <c r="E152" t="n">
-        <v>14.07746684379154</v>
+        <v>15.70411753953036</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.151451063298415</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>294.1442843030924</v>
+        <v>305.8059343721116</v>
       </c>
       <c r="C153" t="n">
-        <v>741863436.7457082</v>
+        <v>621263980.3630487</v>
       </c>
       <c r="D153" t="n">
-        <v>47947758393.05579</v>
+        <v>49943815084.21539</v>
       </c>
       <c r="E153" t="n">
-        <v>15.70411753953041</v>
+        <v>18.28837201903696</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4.162982291678263</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>305.8059343721116</v>
+        <v>301.7093360041395</v>
       </c>
       <c r="C154" t="n">
-        <v>621263980.3630487</v>
+        <v>736192124.7276325</v>
       </c>
       <c r="D154" t="n">
-        <v>49943815084.21539</v>
+        <v>49222768561.11433</v>
       </c>
       <c r="E154" t="n">
-        <v>18.28837201903699</v>
+        <v>19.29802489667381</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-1.443715346705532</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>301.7093360041395</v>
+        <v>298.8973192510195</v>
       </c>
       <c r="C155" t="n">
-        <v>736192124.7276325</v>
+        <v>781896457.7009352</v>
       </c>
       <c r="D155" t="n">
-        <v>49222768561.11433</v>
+        <v>48792209674.23091</v>
       </c>
       <c r="E155" t="n">
-        <v>19.29802489667385</v>
+        <v>20.40486559372702</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.8747148920500991</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>298.8973192510195</v>
+        <v>300.1861465904951</v>
       </c>
       <c r="C156" t="n">
-        <v>781896457.7009352</v>
+        <v>609443149.9988856</v>
       </c>
       <c r="D156" t="n">
-        <v>48792209674.23091</v>
+        <v>48934162211.70411</v>
       </c>
       <c r="E156" t="n">
-        <v>20.40486559372706</v>
+        <v>21.57502777983006</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.2909327911585935</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>300.1861465904951</v>
+        <v>287.7064487280841</v>
       </c>
       <c r="C157" t="n">
-        <v>609443149.9988856</v>
+        <v>935963362.5168898</v>
       </c>
       <c r="D157" t="n">
-        <v>48934162211.70411</v>
+        <v>38863899341.49335</v>
       </c>
       <c r="E157" t="n">
-        <v>21.5750277798301</v>
+        <v>21.69535049199468</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-20.57920768448783</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>287.7064487280841</v>
+        <v>294.7501563549856</v>
       </c>
       <c r="C158" t="n">
-        <v>935963362.5168898</v>
+        <v>525255021.0152153</v>
       </c>
       <c r="D158" t="n">
-        <v>38863899341.49335</v>
+        <v>39775681142.76484</v>
       </c>
       <c r="E158" t="n">
-        <v>21.69535049199472</v>
+        <v>22.29593038247843</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.346089344406099</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>294.7501563549856</v>
+        <v>304.9491185578326</v>
       </c>
       <c r="C159" t="n">
-        <v>525255021.0152153</v>
+        <v>924329019.7818149</v>
       </c>
       <c r="D159" t="n">
-        <v>39775681142.76484</v>
+        <v>41107817142.74072</v>
       </c>
       <c r="E159" t="n">
-        <v>22.29593038247847</v>
+        <v>23.13677914694519</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3.349121779195974</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>304.9491185578326</v>
+        <v>298.9559759524826</v>
       </c>
       <c r="C160" t="n">
-        <v>924329019.7818149</v>
+        <v>887023242.243446</v>
       </c>
       <c r="D160" t="n">
-        <v>41107817142.74072</v>
+        <v>40342844634.97218</v>
       </c>
       <c r="E160" t="n">
-        <v>23.13677914694522</v>
+        <v>23.49437204318787</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-1.860893039181055</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>298.9559759524826</v>
+        <v>303.1682033719517</v>
       </c>
       <c r="C161" t="n">
-        <v>887023242.243446</v>
+        <v>150521091.8174681</v>
       </c>
       <c r="D161" t="n">
-        <v>40342844634.97218</v>
+        <v>40887166881.19543</v>
       </c>
       <c r="E161" t="n">
-        <v>23.49437204318789</v>
+        <v>23.90622549360692</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.349241113630817</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>303.1682033719517</v>
+        <v>306.0861439563095</v>
       </c>
       <c r="C162" t="n">
-        <v>150521091.8174681</v>
+        <v>769750138.4684281</v>
       </c>
       <c r="D162" t="n">
-        <v>40887166881.19543</v>
+        <v>41352793244.72717</v>
       </c>
       <c r="E162" t="n">
-        <v>23.90622549360695</v>
+        <v>24.23307704626145</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.138808088329268</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>306.0861439563095</v>
+        <v>300.5596006860807</v>
       </c>
       <c r="C163" t="n">
-        <v>769750138.4684281</v>
+        <v>1360044174.044058</v>
       </c>
       <c r="D163" t="n">
-        <v>41352793244.72717</v>
+        <v>40710000029.91988</v>
       </c>
       <c r="E163" t="n">
-        <v>24.23307704626148</v>
+        <v>24.09267226915718</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-1.554413050173475</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>300.5596006860807</v>
+        <v>307.0870836154322</v>
       </c>
       <c r="C164" t="n">
-        <v>1360044174.044058</v>
+        <v>66745144.44348568</v>
       </c>
       <c r="D164" t="n">
-        <v>40710000029.91988</v>
+        <v>41483151362.56983</v>
       </c>
       <c r="E164" t="n">
-        <v>24.09267226915721</v>
+        <v>24.06895993922054</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.899168096491599</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>307.0870836154322</v>
+        <v>304.8876268040751</v>
       </c>
       <c r="C165" t="n">
-        <v>66745144.44348568</v>
+        <v>698771570.2321252</v>
       </c>
       <c r="D165" t="n">
-        <v>41483151362.56983</v>
+        <v>41149656904.52385</v>
       </c>
       <c r="E165" t="n">
-        <v>24.06895993922057</v>
+        <v>23.89722240120899</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.8039274912631011</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>304.8876268040751</v>
+        <v>308.4649150962999</v>
       </c>
       <c r="C166" t="n">
-        <v>698771570.2321252</v>
+        <v>622950362.5651071</v>
       </c>
       <c r="D166" t="n">
-        <v>41149656904.52385</v>
+        <v>41645249790.13214</v>
       </c>
       <c r="E166" t="n">
-        <v>23.89722240120902</v>
+        <v>23.56881423733159</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.204366993285455</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>308.4649150962999</v>
+        <v>305.9476086163142</v>
       </c>
       <c r="C167" t="n">
-        <v>622950362.5651071</v>
+        <v>537183722.5660921</v>
       </c>
       <c r="D167" t="n">
-        <v>41645249790.13214</v>
+        <v>41254850789.52821</v>
       </c>
       <c r="E167" t="n">
-        <v>23.56881423733162</v>
+        <v>23.0740575553386</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.9374394500484717</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>305.9476086163142</v>
+        <v>317.3058436293438</v>
       </c>
       <c r="C168" t="n">
-        <v>537183722.5660921</v>
+        <v>451076761.2172273</v>
       </c>
       <c r="D168" t="n">
-        <v>41254850789.52821</v>
+        <v>42808011984.80755</v>
       </c>
       <c r="E168" t="n">
-        <v>23.07405755533863</v>
+        <v>22.81259490773726</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.764796540419368</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>317.3058436293438</v>
+        <v>307.0579942811479</v>
       </c>
       <c r="C169" t="n">
-        <v>451076761.2172273</v>
+        <v>923049424.9781038</v>
       </c>
       <c r="D169" t="n">
-        <v>42808011984.80755</v>
+        <v>41374485112.91325</v>
       </c>
       <c r="E169" t="n">
-        <v>22.8125949077373</v>
+        <v>21.94283875077511</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-3.348734980739254</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>307.0579942811479</v>
+        <v>312.5124111003879</v>
       </c>
       <c r="C170" t="n">
-        <v>923049424.9781038</v>
+        <v>686300739.6180097</v>
       </c>
       <c r="D170" t="n">
-        <v>41374485112.91325</v>
+        <v>42108205614.49397</v>
       </c>
       <c r="E170" t="n">
-        <v>21.94283875077515</v>
+        <v>20.83234556981411</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.773364670468669</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>312.5124111003879</v>
+        <v>317.6478001387411</v>
       </c>
       <c r="C171" t="n">
-        <v>686300739.6180097</v>
+        <v>859050894.5097826</v>
       </c>
       <c r="D171" t="n">
-        <v>42108205614.49397</v>
+        <v>42847286857.96311</v>
       </c>
       <c r="E171" t="n">
-        <v>20.83234556981414</v>
+        <v>19.7073665060957</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.755195294322287</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>317.6478001387411</v>
+        <v>325.4378607655227</v>
       </c>
       <c r="C172" t="n">
-        <v>859050894.5097826</v>
+        <v>84078874.8380985</v>
       </c>
       <c r="D172" t="n">
-        <v>42847286857.96311</v>
+        <v>43801457182.32052</v>
       </c>
       <c r="E172" t="n">
-        <v>19.70736650609573</v>
+        <v>18.65407438364259</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.226909553270984</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>325.4378607655227</v>
+        <v>332.2759598355965</v>
       </c>
       <c r="C173" t="n">
-        <v>84078874.8380985</v>
+        <v>1268188756.619589</v>
       </c>
       <c r="D173" t="n">
-        <v>43801457182.32052</v>
+        <v>44840122542.47202</v>
       </c>
       <c r="E173" t="n">
-        <v>18.65407438364263</v>
+        <v>18.64633007307022</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.371303209909503</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>332.2759598355965</v>
+        <v>330.848080571643</v>
       </c>
       <c r="C174" t="n">
-        <v>1268188756.619589</v>
+        <v>465200874.3085924</v>
       </c>
       <c r="D174" t="n">
-        <v>44840122542.47202</v>
+        <v>44651269260.7055</v>
       </c>
       <c r="E174" t="n">
-        <v>18.64633007307026</v>
+        <v>18.00866182535635</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.421170306989338</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>330.848080571643</v>
+        <v>327.6615850054474</v>
       </c>
       <c r="C175" t="n">
-        <v>465200874.3085924</v>
+        <v>214914370.7975466</v>
       </c>
       <c r="D175" t="n">
-        <v>44651269260.7055</v>
+        <v>44225334686.7341</v>
       </c>
       <c r="E175" t="n">
-        <v>18.00866182535639</v>
+        <v>17.09439945297506</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.9539136983642948</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>327.6615850054474</v>
+        <v>324.9705115670021</v>
       </c>
       <c r="C176" t="n">
-        <v>214914370.7975466</v>
+        <v>686777874.0027725</v>
       </c>
       <c r="D176" t="n">
-        <v>44225334686.7341</v>
+        <v>43820319411.42918</v>
       </c>
       <c r="E176" t="n">
-        <v>17.0943994529751</v>
+        <v>15.80888557454188</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.9157992317611829</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>324.9705115670021</v>
+        <v>333.3934671331275</v>
       </c>
       <c r="C177" t="n">
-        <v>686777874.0027725</v>
+        <v>581601059.3434665</v>
       </c>
       <c r="D177" t="n">
-        <v>43820319411.42918</v>
+        <v>52687066244.94957</v>
       </c>
       <c r="E177" t="n">
-        <v>15.80888557454193</v>
+        <v>15.62843896459189</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20.23432725414542</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>333.3934671331275</v>
+        <v>328.3652400180065</v>
       </c>
       <c r="C178" t="n">
-        <v>581601059.3434665</v>
+        <v>729847578.7174623</v>
       </c>
       <c r="D178" t="n">
-        <v>52687066244.94957</v>
+        <v>51836845863.67167</v>
       </c>
       <c r="E178" t="n">
-        <v>15.62843896459194</v>
+        <v>14.84542916209488</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-1.613717448842389</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>328.3652400180065</v>
+        <v>305.7504764007344</v>
       </c>
       <c r="C179" t="n">
-        <v>729847578.7174623</v>
+        <v>1346549932.963633</v>
       </c>
       <c r="D179" t="n">
-        <v>51836845863.67167</v>
+        <v>48291721476.57718</v>
       </c>
       <c r="E179" t="n">
-        <v>14.84542916209493</v>
+        <v>13.68580539594919</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-6.839004819888139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>305.7504764007344</v>
+        <v>305.922777928334</v>
       </c>
       <c r="C180" t="n">
-        <v>1346549932.963633</v>
+        <v>624450062.6640974</v>
       </c>
       <c r="D180" t="n">
-        <v>48291721476.57718</v>
+        <v>48368078947.74623</v>
       </c>
       <c r="E180" t="n">
-        <v>13.68580539594925</v>
+        <v>12.98275305411351</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.1581171033757656</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>305.922777928334</v>
+        <v>310.9946900861517</v>
       </c>
       <c r="C181" t="n">
-        <v>624450062.6640974</v>
+        <v>454948260.8163077</v>
       </c>
       <c r="D181" t="n">
-        <v>48368078947.74623</v>
+        <v>49146214017.89854</v>
       </c>
       <c r="E181" t="n">
-        <v>12.98275305411356</v>
+        <v>12.30467250699823</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.608778117884224</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>310.9946900861517</v>
+        <v>313.548945484259</v>
       </c>
       <c r="C182" t="n">
-        <v>454948260.8163077</v>
+        <v>39039403.51465756</v>
       </c>
       <c r="D182" t="n">
-        <v>49146214017.89854</v>
+        <v>49507659250.12227</v>
       </c>
       <c r="E182" t="n">
-        <v>12.30467250699829</v>
+        <v>11.94083125638222</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.7354487816540578</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>313.548945484259</v>
+        <v>293.3185353645144</v>
       </c>
       <c r="C183" t="n">
-        <v>39039403.51465756</v>
+        <v>532374603.3422022</v>
       </c>
       <c r="D183" t="n">
-        <v>49507659250.12227</v>
+        <v>46259599942.4369</v>
       </c>
       <c r="E183" t="n">
-        <v>11.94083125638228</v>
+        <v>12.33082788206602</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-6.560720819531274</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>293.3185353645144</v>
+        <v>296.2006166788949</v>
       </c>
       <c r="C184" t="n">
-        <v>532374603.3422022</v>
+        <v>1005050377.496216</v>
       </c>
       <c r="D184" t="n">
-        <v>46259599942.4369</v>
+        <v>46811338177.70054</v>
       </c>
       <c r="E184" t="n">
-        <v>12.33082788206608</v>
+        <v>12.50367406074113</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.192699971357714</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>296.2006166788949</v>
+        <v>317.253716942579</v>
       </c>
       <c r="C185" t="n">
-        <v>1005050377.496216</v>
+        <v>1031520466.893834</v>
       </c>
       <c r="D185" t="n">
-        <v>46811338177.70054</v>
+        <v>50074569838.81647</v>
       </c>
       <c r="E185" t="n">
-        <v>12.50367406074119</v>
+        <v>12.38197054003542</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6.971028362249276</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>317.253716942579</v>
+        <v>306.7607705486582</v>
       </c>
       <c r="C186" t="n">
-        <v>1031520466.893834</v>
+        <v>1643331080.465968</v>
       </c>
       <c r="D186" t="n">
-        <v>50074569838.81647</v>
+        <v>48379049686.04854</v>
       </c>
       <c r="E186" t="n">
-        <v>12.38197054003548</v>
+        <v>12.2455440288016</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-3.385990450293608</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>306.7607705486582</v>
+        <v>313.6715884155803</v>
       </c>
       <c r="C187" t="n">
-        <v>1643331080.465968</v>
+        <v>1114028934.454211</v>
       </c>
       <c r="D187" t="n">
-        <v>48379049686.04854</v>
+        <v>49577894902.09543</v>
       </c>
       <c r="E187" t="n">
-        <v>12.24554402880166</v>
+        <v>11.43359423794607</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.478025558225494</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>313.6715884155803</v>
+        <v>316.2076873945047</v>
       </c>
       <c r="C188" t="n">
-        <v>1114028934.454211</v>
+        <v>642090260.6405485</v>
       </c>
       <c r="D188" t="n">
-        <v>49577894902.09543</v>
+        <v>49856817082.59676</v>
       </c>
       <c r="E188" t="n">
-        <v>11.43359423794613</v>
+        <v>10.98895572524532</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.5625938355231286</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>316.2076873945047</v>
+        <v>311.3543763987212</v>
       </c>
       <c r="C189" t="n">
-        <v>642090260.6405485</v>
+        <v>780739778.8108439</v>
       </c>
       <c r="D189" t="n">
-        <v>49856817082.59676</v>
+        <v>49473349358.15968</v>
       </c>
       <c r="E189" t="n">
-        <v>10.98895572524539</v>
+        <v>10.89755024085352</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.7691379973210011</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>311.3543763987212</v>
+        <v>314.9405352551521</v>
       </c>
       <c r="C190" t="n">
-        <v>780739778.8108439</v>
+        <v>883654966.1127073</v>
       </c>
       <c r="D190" t="n">
-        <v>49473349358.15968</v>
+        <v>49710803984.08142</v>
       </c>
       <c r="E190" t="n">
-        <v>10.89755024085359</v>
+        <v>10.58423751257043</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.4799647264686069</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>314.9405352551521</v>
+        <v>311.0758832548785</v>
       </c>
       <c r="C191" t="n">
-        <v>883654966.1127073</v>
+        <v>744251696.0688722</v>
       </c>
       <c r="D191" t="n">
-        <v>49710803984.08142</v>
+        <v>49103313729.37265</v>
       </c>
       <c r="E191" t="n">
-        <v>10.5842375125705</v>
+        <v>10.41988770614368</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-1.222048741966242</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>311.0758832548785</v>
+        <v>312.4648086454937</v>
       </c>
       <c r="C192" t="n">
-        <v>744251696.0688722</v>
+        <v>929231102.2772474</v>
       </c>
       <c r="D192" t="n">
-        <v>49103313729.37265</v>
+        <v>49367058957.58157</v>
       </c>
       <c r="E192" t="n">
-        <v>10.41988770614376</v>
+        <v>10.32628107422709</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.537123074142265</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>312.4648086454937</v>
+        <v>308.513806240444</v>
       </c>
       <c r="C193" t="n">
-        <v>929231102.2772474</v>
+        <v>768415803.7098821</v>
       </c>
       <c r="D193" t="n">
-        <v>49367058957.58157</v>
+        <v>48689301152.18177</v>
       </c>
       <c r="E193" t="n">
-        <v>10.32628107422717</v>
+        <v>10.07372118553502</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-1.372894840630801</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>308.513806240444</v>
+        <v>301.8300281763101</v>
       </c>
       <c r="C194" t="n">
-        <v>768415803.7098821</v>
+        <v>661382772.5581934</v>
       </c>
       <c r="D194" t="n">
-        <v>48689301152.18177</v>
+        <v>47654082071.56505</v>
       </c>
       <c r="E194" t="n">
-        <v>10.0737211855351</v>
+        <v>10.24351849822223</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-2.126173627715611</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>301.8300281763101</v>
+        <v>302.1358164597085</v>
       </c>
       <c r="C195" t="n">
-        <v>661382772.5581934</v>
+        <v>463170459.0966241</v>
       </c>
       <c r="D195" t="n">
-        <v>47654082071.56505</v>
+        <v>47710101862.93616</v>
       </c>
       <c r="E195" t="n">
-        <v>10.24351849822231</v>
+        <v>10.33875412862415</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.1175550738486075</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>302.1358164597085</v>
+        <v>308.5740940219686</v>
       </c>
       <c r="C196" t="n">
-        <v>463170459.0966241</v>
+        <v>454441353.1641066</v>
       </c>
       <c r="D196" t="n">
-        <v>47710101862.93616</v>
+        <v>48751232145.0268</v>
       </c>
       <c r="E196" t="n">
-        <v>10.33875412862423</v>
+        <v>10.3368324399389</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2.182200920638677</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>308.5740940219686</v>
+        <v>304.5602014720987</v>
       </c>
       <c r="C197" t="n">
-        <v>454441353.1641066</v>
+        <v>493844165.8722796</v>
       </c>
       <c r="D197" t="n">
-        <v>48751232145.0268</v>
+        <v>48144114205.19624</v>
       </c>
       <c r="E197" t="n">
-        <v>10.33683243993898</v>
+        <v>10.37619537038936</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-1.245338657337902</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>304.5602014720987</v>
+        <v>301.3031642449634</v>
       </c>
       <c r="C198" t="n">
-        <v>493844165.8722796</v>
+        <v>430335213.8863478</v>
       </c>
       <c r="D198" t="n">
-        <v>48144114205.19624</v>
+        <v>47506411709.74829</v>
       </c>
       <c r="E198" t="n">
-        <v>10.37619537038943</v>
+        <v>10.59619457592642</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-1.324570003988412</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>301.3031642449634</v>
+        <v>303.1823180402563</v>
       </c>
       <c r="C199" t="n">
-        <v>430335213.8863478</v>
+        <v>46710424.92698087</v>
       </c>
       <c r="D199" t="n">
-        <v>47506411709.74829</v>
+        <v>47810909892.96906</v>
       </c>
       <c r="E199" t="n">
-        <v>10.59619457592649</v>
+        <v>10.69703932872908</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.6409622875353627</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>303.1823180402563</v>
+        <v>299.8205449614164</v>
       </c>
       <c r="C200" t="n">
-        <v>46710424.92698087</v>
+        <v>442900344.9757042</v>
       </c>
       <c r="D200" t="n">
-        <v>47810909892.96906</v>
+        <v>47378215431.82571</v>
       </c>
       <c r="E200" t="n">
-        <v>10.69703932872915</v>
+        <v>10.96818190949669</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.9050119776260135</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>299.8205449614164</v>
+        <v>290.2181359822638</v>
       </c>
       <c r="C201" t="n">
-        <v>442900344.9757042</v>
+        <v>551796723.5580955</v>
       </c>
       <c r="D201" t="n">
-        <v>47378215431.82571</v>
+        <v>45805267734.66612</v>
       </c>
       <c r="E201" t="n">
-        <v>10.96818190949676</v>
+        <v>11.66005397277493</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-3.319980887467078</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>290.2181359822638</v>
+        <v>289.1664338831793</v>
       </c>
       <c r="C202" t="n">
-        <v>551796723.5580955</v>
+        <v>176384110.1505019</v>
       </c>
       <c r="D202" t="n">
-        <v>45805267734.66612</v>
+        <v>45700004126.05603</v>
       </c>
       <c r="E202" t="n">
-        <v>11.66005397277499</v>
+        <v>12.06546925222255</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.2298067751068444</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>289.1664338831793</v>
+        <v>288.6204867584976</v>
       </c>
       <c r="C203" t="n">
-        <v>176384110.1505019</v>
+        <v>390135653.2095669</v>
       </c>
       <c r="D203" t="n">
-        <v>45700004126.05603</v>
+        <v>45495219627.74934</v>
       </c>
       <c r="E203" t="n">
-        <v>12.06546925222261</v>
+        <v>11.98623365772352</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-0.4481060827518313</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>288.6204867584976</v>
+        <v>288.0216531003051</v>
       </c>
       <c r="C204" t="n">
-        <v>390135653.2095669</v>
+        <v>374939330.7159517</v>
       </c>
       <c r="D204" t="n">
-        <v>45495219627.74934</v>
+        <v>45478695800.90066</v>
       </c>
       <c r="E204" t="n">
-        <v>11.98623365772359</v>
+        <v>11.85479204859693</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.03631991884834873</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>288.0216531003051</v>
+        <v>289.2451007399085</v>
       </c>
       <c r="C205" t="n">
-        <v>374939330.7159517</v>
+        <v>404064175.5470172</v>
       </c>
       <c r="D205" t="n">
-        <v>45478695800.90066</v>
+        <v>45570679868.5244</v>
       </c>
       <c r="E205" t="n">
-        <v>11.854792048597</v>
+        <v>11.69350698227862</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.2022574878277839</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>289.2451007399085</v>
+        <v>286.687108156645</v>
       </c>
       <c r="C206" t="n">
-        <v>404064175.5470172</v>
+        <v>542305823.4151909</v>
       </c>
       <c r="D206" t="n">
-        <v>45570679868.5244</v>
+        <v>45478533320.59014</v>
       </c>
       <c r="E206" t="n">
-        <v>11.69350698227868</v>
+        <v>11.68364504272885</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-0.2022057783647502</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>286.687108156645</v>
+        <v>277.4898893668297</v>
       </c>
       <c r="C207" t="n">
-        <v>542305823.4151909</v>
+        <v>567240687.7138394</v>
       </c>
       <c r="D207" t="n">
-        <v>45478533320.59014</v>
+        <v>43661786794.52246</v>
       </c>
       <c r="E207" t="n">
-        <v>11.68364504272891</v>
+        <v>11.47219644161981</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-3.994734204071526</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>277.4898893668297</v>
+        <v>277.0325906024584</v>
       </c>
       <c r="C208" t="n">
-        <v>567240687.7138394</v>
+        <v>798558784.3546314</v>
       </c>
       <c r="D208" t="n">
-        <v>43661786794.52246</v>
+        <v>43804338397.93352</v>
       </c>
       <c r="E208" t="n">
-        <v>11.47219644161987</v>
+        <v>11.42357124589805</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.3264905398441931</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>277.0325906024584</v>
+        <v>275.7372051266238</v>
       </c>
       <c r="C209" t="n">
-        <v>798558784.3546314</v>
+        <v>403056782.2652211</v>
       </c>
       <c r="D209" t="n">
-        <v>43804338397.93352</v>
+        <v>43464995300.65634</v>
       </c>
       <c r="E209" t="n">
-        <v>11.42357124589812</v>
+        <v>12.32016044849869</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-0.7746791977417122</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>275.7372051266238</v>
+        <v>289.7902515446876</v>
       </c>
       <c r="C210" t="n">
-        <v>403056782.2652211</v>
+        <v>612009105.3657018</v>
       </c>
       <c r="D210" t="n">
-        <v>43464995300.65634</v>
+        <v>45537337811.06892</v>
       </c>
       <c r="E210" t="n">
-        <v>12.32016044849875</v>
+        <v>12.42819252443574</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4.767842481237516</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>289.7902515446876</v>
+        <v>308.7185015809654</v>
       </c>
       <c r="C211" t="n">
-        <v>612009105.3657018</v>
+        <v>1335818570.201739</v>
       </c>
       <c r="D211" t="n">
-        <v>45537337811.06892</v>
+        <v>48742270523.99352</v>
       </c>
       <c r="E211" t="n">
-        <v>12.4281925244358</v>
+        <v>12.36548747211147</v>
+      </c>
+      <c r="F211" t="n">
+        <v>7.038032671610339</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>308.7185015809654</v>
+        <v>309.5761716774615</v>
       </c>
       <c r="C212" t="n">
-        <v>1335818570.201739</v>
+        <v>1256202195.931746</v>
       </c>
       <c r="D212" t="n">
-        <v>48742270523.99352</v>
+        <v>48897303943.23103</v>
       </c>
       <c r="E212" t="n">
-        <v>12.36548747211153</v>
+        <v>12.23502522390888</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.3180677009315458</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>309.5761716774615</v>
+        <v>307.7201385505735</v>
       </c>
       <c r="C213" t="n">
-        <v>1256202195.931746</v>
+        <v>960165739.5006174</v>
       </c>
       <c r="D213" t="n">
-        <v>48897303943.23103</v>
+        <v>48551821321.07191</v>
       </c>
       <c r="E213" t="n">
-        <v>12.23502522390894</v>
+        <v>12.25517767086733</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-0.7065473846169734</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>307.7201385505735</v>
+        <v>331.5288953276436</v>
       </c>
       <c r="C214" t="n">
-        <v>960165739.5006174</v>
+        <v>2047768477.144418</v>
       </c>
       <c r="D214" t="n">
-        <v>48551821321.07191</v>
+        <v>52391403811.80733</v>
       </c>
       <c r="E214" t="n">
-        <v>12.25517767086739</v>
+        <v>13.48687858425059</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7.908215152927767</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>331.5288953276436</v>
+        <v>339.7637877756098</v>
       </c>
       <c r="C215" t="n">
-        <v>2047768477.144418</v>
+        <v>1414370161.052794</v>
       </c>
       <c r="D215" t="n">
-        <v>52391403811.80733</v>
+        <v>53560165299.8996</v>
       </c>
       <c r="E215" t="n">
-        <v>13.48687858425064</v>
+        <v>14.94441081677902</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2.230826820923748</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>339.7637877756098</v>
+        <v>333.0317288963574</v>
       </c>
       <c r="C216" t="n">
-        <v>1414370161.052794</v>
+        <v>1170238152.18386</v>
       </c>
       <c r="D216" t="n">
-        <v>53560165299.8996</v>
+        <v>52572257613.56484</v>
       </c>
       <c r="E216" t="n">
-        <v>14.94441081677907</v>
+        <v>15.95686092909656</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-1.844482146018722</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>333.0317288963574</v>
+        <v>337.4521492573554</v>
       </c>
       <c r="C217" t="n">
-        <v>1170238152.18386</v>
+        <v>1119946335.616627</v>
       </c>
       <c r="D217" t="n">
-        <v>52572257613.56484</v>
+        <v>53585863733.10809</v>
       </c>
       <c r="E217" t="n">
-        <v>15.9568609290966</v>
+        <v>17.05477434909728</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.92802471408744</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>337.4521492573554</v>
+        <v>335.5951089488217</v>
       </c>
       <c r="C218" t="n">
-        <v>1119946335.616627</v>
+        <v>971414874.6363703</v>
       </c>
       <c r="D218" t="n">
-        <v>53585863733.10809</v>
+        <v>52937903481.94648</v>
       </c>
       <c r="E218" t="n">
-        <v>17.05477434909733</v>
+        <v>17.88590697923128</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-1.209199975554864</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>335.5951089488217</v>
+        <v>336.8928482178094</v>
       </c>
       <c r="C219" t="n">
-        <v>971414874.6363703</v>
+        <v>701983178.0364658</v>
       </c>
       <c r="D219" t="n">
-        <v>52937903481.94648</v>
+        <v>53201553977.42892</v>
       </c>
       <c r="E219" t="n">
-        <v>17.88590697923133</v>
+        <v>18.80717135087633</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.498037281684871</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>336.8928482178094</v>
+        <v>323.6013052701185</v>
       </c>
       <c r="C220" t="n">
-        <v>701983178.0364658</v>
+        <v>1814263586.664783</v>
       </c>
       <c r="D220" t="n">
-        <v>53201553977.42892</v>
+        <v>51090160090.90309</v>
       </c>
       <c r="E220" t="n">
-        <v>18.80717135087637</v>
+        <v>19.02457871513545</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-3.96866957574511</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>323.6013052701185</v>
+        <v>331.2478886780775</v>
       </c>
       <c r="C221" t="n">
-        <v>1814263586.664783</v>
+        <v>536796198.6892046</v>
       </c>
       <c r="D221" t="n">
-        <v>51090160090.90309</v>
+        <v>52201524707.85315</v>
       </c>
       <c r="E221" t="n">
-        <v>19.02457871513549</v>
+        <v>19.57175375719529</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2.175300713430217</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>331.2478886780775</v>
+        <v>324.0768103181536</v>
       </c>
       <c r="C222" t="n">
-        <v>536796198.6892046</v>
+        <v>621238645.7722163</v>
       </c>
       <c r="D222" t="n">
-        <v>52201524707.85315</v>
+        <v>51206299864.86048</v>
       </c>
       <c r="E222" t="n">
-        <v>19.57175375719533</v>
+        <v>19.81088527502066</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-1.906505314859031</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>324.0768103181536</v>
+        <v>324.552364038878</v>
       </c>
       <c r="C223" t="n">
-        <v>621238645.7722163</v>
+        <v>503625770.4410441</v>
       </c>
       <c r="D223" t="n">
-        <v>51206299864.86048</v>
+        <v>51256796649.83064</v>
       </c>
       <c r="E223" t="n">
-        <v>19.8108852750207</v>
+        <v>20.07603059667379</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.09861439921148296</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>324.552364038878</v>
+        <v>329.1465152858932</v>
       </c>
       <c r="C224" t="n">
-        <v>503625770.4410441</v>
+        <v>526856127.1703548</v>
       </c>
       <c r="D224" t="n">
-        <v>51256796649.83064</v>
+        <v>52057241786.70498</v>
       </c>
       <c r="E224" t="n">
-        <v>20.07603059667383</v>
+        <v>20.43844198269495</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.561637069016841</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>329.1465152858932</v>
+        <v>311.5120610649578</v>
       </c>
       <c r="C225" t="n">
-        <v>526856127.1703548</v>
+        <v>997088502.1452161</v>
       </c>
       <c r="D225" t="n">
-        <v>52057241786.70498</v>
+        <v>49079615720.34434</v>
       </c>
       <c r="E225" t="n">
-        <v>20.43844198269499</v>
+        <v>20.41498498057408</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-5.719907479080277</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>311.5120610649578</v>
+        <v>313.57729882917</v>
       </c>
       <c r="C226" t="n">
-        <v>997088502.1452161</v>
+        <v>658161657.2825164</v>
       </c>
       <c r="D226" t="n">
-        <v>49079615720.34434</v>
+        <v>49485646211.52563</v>
       </c>
       <c r="E226" t="n">
-        <v>20.41498498057412</v>
+        <v>20.43635556724643</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.8272894667612274</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>313.57729882917</v>
+        <v>314.1509386529665</v>
       </c>
       <c r="C227" t="n">
-        <v>658161657.2825164</v>
+        <v>704587676.7940805</v>
       </c>
       <c r="D227" t="n">
-        <v>49485646211.52563</v>
+        <v>49577395648.83864</v>
       </c>
       <c r="E227" t="n">
-        <v>20.43635556724646</v>
+        <v>20.445525356396</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.1854061618612013</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>314.1509386529665</v>
+        <v>317.1206678790712</v>
       </c>
       <c r="C228" t="n">
-        <v>704587676.7940805</v>
+        <v>160176096.7424361</v>
       </c>
       <c r="D228" t="n">
-        <v>49577395648.83864</v>
+        <v>50168780547.08524</v>
       </c>
       <c r="E228" t="n">
-        <v>20.44552535639604</v>
+        <v>20.44551587276446</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.192851884426194</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>317.1206678790712</v>
+        <v>317.2601152578647</v>
       </c>
       <c r="C229" t="n">
-        <v>160176096.7424361</v>
+        <v>555650019.9278872</v>
       </c>
       <c r="D229" t="n">
-        <v>50168780547.08524</v>
+        <v>50095782784.53751</v>
       </c>
       <c r="E229" t="n">
-        <v>20.4455158727645</v>
+        <v>20.45763767881136</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-0.1455043589892013</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>317.2601152578647</v>
+        <v>315.083596866553</v>
       </c>
       <c r="C230" t="n">
-        <v>555650019.9278872</v>
+        <v>413653443.0436453</v>
       </c>
       <c r="D230" t="n">
-        <v>50095782784.53751</v>
+        <v>49738899676.69931</v>
       </c>
       <c r="E230" t="n">
-        <v>20.4576376788114</v>
+        <v>20.38683119068706</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-0.7124014996894079</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>315.083596866553</v>
+        <v>314.1117385244166</v>
       </c>
       <c r="C231" t="n">
-        <v>413653443.0436453</v>
+        <v>362774663.3536326</v>
       </c>
       <c r="D231" t="n">
-        <v>49738899676.69931</v>
+        <v>49580832087.44408</v>
       </c>
       <c r="E231" t="n">
-        <v>20.3868311906871</v>
+        <v>20.03266814643454</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-0.3177947045122753</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>314.1117385244166</v>
+        <v>308.8460879659856</v>
       </c>
       <c r="C232" t="n">
-        <v>362774663.3536326</v>
+        <v>747571395.7140489</v>
       </c>
       <c r="D232" t="n">
-        <v>49580832087.44408</v>
+        <v>48834992855.51275</v>
       </c>
       <c r="E232" t="n">
-        <v>20.03266814643457</v>
+        <v>19.60216066749037</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-1.504289461330388</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>308.8460879659856</v>
+        <v>310.988227582093</v>
       </c>
       <c r="C233" t="n">
-        <v>747571395.7140489</v>
+        <v>659840226.23963</v>
       </c>
       <c r="D233" t="n">
-        <v>48834992855.51275</v>
+        <v>49087111958.36544</v>
       </c>
       <c r="E233" t="n">
-        <v>19.60216066749041</v>
+        <v>19.10500021008966</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.5162673077451441</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>310.988227582093</v>
+        <v>314.2767608833873</v>
       </c>
       <c r="C234" t="n">
-        <v>659840226.23963</v>
+        <v>601075886.1486617</v>
       </c>
       <c r="D234" t="n">
-        <v>49087111958.36544</v>
+        <v>49641625563.79157</v>
       </c>
       <c r="E234" t="n">
-        <v>19.10500021008971</v>
+        <v>18.53053428372321</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.12965212925229</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>314.2767608833873</v>
+        <v>312.3686479069641</v>
       </c>
       <c r="C235" t="n">
-        <v>601075886.1486617</v>
+        <v>490400831.009913</v>
       </c>
       <c r="D235" t="n">
-        <v>49641625563.79157</v>
+        <v>49315808886.97745</v>
       </c>
       <c r="E235" t="n">
-        <v>18.53053428372325</v>
+        <v>17.95774950541494</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-0.6563376463074033</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>312.3686479069641</v>
+        <v>310.825809386124</v>
       </c>
       <c r="C236" t="n">
-        <v>490400831.009913</v>
+        <v>348203531.1291834</v>
       </c>
       <c r="D236" t="n">
-        <v>49315808886.97745</v>
+        <v>49053688105.57</v>
       </c>
       <c r="E236" t="n">
-        <v>17.95774950541498</v>
+        <v>17.20286527026789</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.5315147157135325</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>310.825809386124</v>
+        <v>310.6618311940004</v>
       </c>
       <c r="C237" t="n">
-        <v>348203531.1291834</v>
+        <v>405518010.5378314</v>
       </c>
       <c r="D237" t="n">
-        <v>49053688105.57</v>
+        <v>49063096682.29419</v>
       </c>
       <c r="E237" t="n">
-        <v>17.20286527026793</v>
+        <v>15.70256732755394</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.01918016175244119</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>310.6618311940004</v>
+        <v>313.011277256604</v>
       </c>
       <c r="C238" t="n">
-        <v>405518010.5378314</v>
+        <v>417632833.0714483</v>
       </c>
       <c r="D238" t="n">
-        <v>49063096682.29419</v>
+        <v>49448040243.32526</v>
       </c>
       <c r="E238" t="n">
-        <v>15.70256732755399</v>
+        <v>13.87491681161231</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.7845887990392431</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>313.011277256604</v>
+        <v>318.2263191867679</v>
       </c>
       <c r="C239" t="n">
-        <v>417632833.0714483</v>
+        <v>571039270.0011872</v>
       </c>
       <c r="D239" t="n">
-        <v>49448040243.32526</v>
+        <v>50278276856.34864</v>
       </c>
       <c r="E239" t="n">
-        <v>13.87491681161237</v>
+        <v>11.42737302888244</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1.679008124362302</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>318.2263191867679</v>
+        <v>322.7311673468567</v>
       </c>
       <c r="C240" t="n">
-        <v>571039270.0011872</v>
+        <v>1121318919.678829</v>
       </c>
       <c r="D240" t="n">
-        <v>50278276856.34864</v>
+        <v>50988411866.09584</v>
       </c>
       <c r="E240" t="n">
-        <v>11.4273730288825</v>
+        <v>10.03976091783857</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.412409203633103</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>322.7311673468567</v>
+        <v>320.2858565160031</v>
       </c>
       <c r="C241" t="n">
-        <v>1121318919.678829</v>
+        <v>451476955.7317495</v>
       </c>
       <c r="D241" t="n">
-        <v>50988411866.09584</v>
+        <v>50587359529.51448</v>
       </c>
       <c r="E241" t="n">
-        <v>10.03976091783864</v>
+        <v>9.814246452679294</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-0.7865558504441927</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>320.2858565160031</v>
+        <v>325.0341443090158</v>
       </c>
       <c r="C242" t="n">
-        <v>451476955.7317495</v>
+        <v>632784569.0034571</v>
       </c>
       <c r="D242" t="n">
-        <v>50587359529.51448</v>
+        <v>51295369255.15624</v>
       </c>
       <c r="E242" t="n">
-        <v>9.81424645267937</v>
+        <v>9.635565006793779</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.399578337803309</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>325.0341443090158</v>
+        <v>328.9755384219034</v>
       </c>
       <c r="C243" t="n">
-        <v>632784569.0034571</v>
+        <v>1091698237.295445</v>
       </c>
       <c r="D243" t="n">
-        <v>51295369255.15624</v>
+        <v>51952175557.44118</v>
       </c>
       <c r="E243" t="n">
-        <v>9.635565006793858</v>
+        <v>9.417902358374361</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1.280439758641405</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>328.9755384219034</v>
+        <v>333.266296467958</v>
       </c>
       <c r="C244" t="n">
-        <v>1091698237.295445</v>
+        <v>740571912.0321591</v>
       </c>
       <c r="D244" t="n">
-        <v>51952175557.44118</v>
+        <v>52662920698.98643</v>
       </c>
       <c r="E244" t="n">
-        <v>9.417902358374441</v>
+        <v>9.486592074362168</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1.368075800327961</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>333.266296467958</v>
+        <v>347.8655893098676</v>
       </c>
       <c r="C245" t="n">
-        <v>740571912.0321591</v>
+        <v>1075190126.152268</v>
       </c>
       <c r="D245" t="n">
-        <v>52662920698.98643</v>
+        <v>54913630927.48669</v>
       </c>
       <c r="E245" t="n">
-        <v>9.486592074362248</v>
+        <v>10.11624345622377</v>
+      </c>
+      <c r="F245" t="n">
+        <v>4.273804412339754</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>347.8655893098676</v>
+        <v>340.0300465119859</v>
       </c>
       <c r="C246" t="n">
-        <v>1075190126.152268</v>
+        <v>973941455.2752048</v>
       </c>
       <c r="D246" t="n">
-        <v>54913630927.48669</v>
+        <v>53664070532.38938</v>
       </c>
       <c r="E246" t="n">
-        <v>10.11624345622384</v>
+        <v>10.457688904074</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-2.275501317236428</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>340.0300465119859</v>
+        <v>343.00901173127</v>
       </c>
       <c r="C247" t="n">
-        <v>973941455.2752048</v>
+        <v>846447082.4196671</v>
       </c>
       <c r="D247" t="n">
-        <v>53664070532.38938</v>
+        <v>54204297110.62978</v>
       </c>
       <c r="E247" t="n">
-        <v>10.45768890407408</v>
+        <v>10.78326737558944</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.006682074022569</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>343.00901173127</v>
+        <v>322.3471657170883</v>
       </c>
       <c r="C248" t="n">
-        <v>846447082.4196671</v>
+        <v>985507232.8301048</v>
       </c>
       <c r="D248" t="n">
-        <v>54204297110.62978</v>
+        <v>50996266810.04863</v>
       </c>
       <c r="E248" t="n">
-        <v>10.78326737558951</v>
+        <v>10.48626153665027</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-5.918405867404985</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>322.3471657170883</v>
+        <v>317.7755693889223</v>
       </c>
       <c r="C249" t="n">
-        <v>985507232.8301048</v>
+        <v>683865621.1906222</v>
       </c>
       <c r="D249" t="n">
-        <v>50996266810.04863</v>
+        <v>50076803639.50295</v>
       </c>
       <c r="E249" t="n">
-        <v>10.48626153665035</v>
+        <v>10.11398797040698</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-1.803000941167909</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>317.7755693889223</v>
+        <v>321.6042188902484</v>
       </c>
       <c r="C250" t="n">
-        <v>683865621.1906222</v>
+        <v>1346836221.253571</v>
       </c>
       <c r="D250" t="n">
-        <v>50076803639.50295</v>
+        <v>50793309306.65276</v>
       </c>
       <c r="E250" t="n">
-        <v>10.11398797040705</v>
+        <v>10.10419777495961</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1.43081350061367</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>321.6042188902484</v>
+        <v>332.4120196903734</v>
       </c>
       <c r="C251" t="n">
-        <v>1346836221.253571</v>
+        <v>832518965.5138868</v>
       </c>
       <c r="D251" t="n">
-        <v>50793309306.65276</v>
+        <v>52527550309.24134</v>
       </c>
       <c r="E251" t="n">
-        <v>10.10419777495968</v>
+        <v>10.14653209424121</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3.414309928338199</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>332.4120196903734</v>
+        <v>330.6800137558747</v>
       </c>
       <c r="C252" t="n">
-        <v>832518965.5138868</v>
+        <v>813713561.0737931</v>
       </c>
       <c r="D252" t="n">
-        <v>52527550309.24134</v>
+        <v>52165975187.26134</v>
       </c>
       <c r="E252" t="n">
-        <v>10.14653209424129</v>
+        <v>10.28244883344139</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-0.6883532924176428</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>330.6800137558747</v>
+        <v>331.1471066323074</v>
       </c>
       <c r="C253" t="n">
-        <v>813713561.0737931</v>
+        <v>824508784.7691495</v>
       </c>
       <c r="D253" t="n">
-        <v>52165975187.26134</v>
+        <v>52279828638.58975</v>
       </c>
       <c r="E253" t="n">
-        <v>10.28244883344146</v>
+        <v>10.42190753104945</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.2182523204439457</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>331.1471066323074</v>
+        <v>339.0962537117164</v>
       </c>
       <c r="C254" t="n">
-        <v>824508784.7691495</v>
+        <v>785289597.8002714</v>
       </c>
       <c r="D254" t="n">
-        <v>52279828638.58975</v>
+        <v>53516035779.15106</v>
       </c>
       <c r="E254" t="n">
-        <v>10.42190753104952</v>
+        <v>10.82066613271677</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2.364596772317684</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>339.0962537117164</v>
+        <v>330.4372156836176</v>
       </c>
       <c r="C255" t="n">
-        <v>785289597.8002714</v>
+        <v>1092842791.891174</v>
       </c>
       <c r="D255" t="n">
-        <v>53516035779.15106</v>
+        <v>52172391454.20013</v>
       </c>
       <c r="E255" t="n">
-        <v>10.82066613271684</v>
+        <v>10.74298011030595</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-2.510732167262653</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>330.4372156836176</v>
+        <v>331.5148364790334</v>
       </c>
       <c r="C256" t="n">
-        <v>1092842791.891174</v>
+        <v>1343734688.545247</v>
       </c>
       <c r="D256" t="n">
-        <v>52172391454.20013</v>
+        <v>52415571800.62267</v>
       </c>
       <c r="E256" t="n">
-        <v>10.74298011030602</v>
+        <v>10.72416845708992</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.4661092574911541</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>331.5148364790334</v>
+        <v>324.4799022382828</v>
       </c>
       <c r="C257" t="n">
-        <v>1343734688.545247</v>
+        <v>1424162567.506124</v>
       </c>
       <c r="D257" t="n">
-        <v>52415571800.62267</v>
+        <v>51224904112.21141</v>
       </c>
       <c r="E257" t="n">
-        <v>10.72416845708999</v>
+        <v>10.58953885970141</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-2.27159152806784</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>324.4799022382828</v>
+        <v>321.7739116886613</v>
       </c>
       <c r="C258" t="n">
-        <v>1424162567.506124</v>
+        <v>478613089.0929595</v>
       </c>
       <c r="D258" t="n">
-        <v>51224904112.21141</v>
+        <v>50858247900.90285</v>
       </c>
       <c r="E258" t="n">
-        <v>10.58953885970148</v>
+        <v>10.52652916037185</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-0.7157772526140249</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>321.7739116886613</v>
+        <v>337.6215212994704</v>
       </c>
       <c r="C259" t="n">
-        <v>478613089.0929595</v>
+        <v>1090442723.924132</v>
       </c>
       <c r="D259" t="n">
-        <v>50858247900.90285</v>
+        <v>53251356964.08738</v>
       </c>
       <c r="E259" t="n">
-        <v>10.52652916037193</v>
+        <v>10.75291422026287</v>
+      </c>
+      <c r="F259" t="n">
+        <v>4.705449286903263</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>337.6215212994704</v>
+        <v>328.9725550089708</v>
       </c>
       <c r="C260" t="n">
-        <v>1090442723.924132</v>
+        <v>1154791180.862433</v>
       </c>
       <c r="D260" t="n">
-        <v>53251356964.08738</v>
+        <v>51933432316.78136</v>
       </c>
       <c r="E260" t="n">
-        <v>10.75291422026294</v>
+        <v>10.63859734440376</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-2.474912795545903</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>328.9725550089708</v>
+        <v>322.2059436368959</v>
       </c>
       <c r="C261" t="n">
-        <v>1154791180.862433</v>
+        <v>452507446.7635952</v>
       </c>
       <c r="D261" t="n">
-        <v>51933432316.78136</v>
+        <v>50888408585.05112</v>
       </c>
       <c r="E261" t="n">
-        <v>10.63859734440384</v>
+        <v>10.45897722456388</v>
+      </c>
+      <c r="F261" t="n">
+        <v>-2.012236983213123</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>322.2059436368959</v>
+        <v>326.0118208894278</v>
       </c>
       <c r="C262" t="n">
-        <v>452507446.7635952</v>
+        <v>1041154858.962188</v>
       </c>
       <c r="D262" t="n">
-        <v>50888408585.05112</v>
+        <v>51423455643.06268</v>
       </c>
       <c r="E262" t="n">
-        <v>10.45897722456395</v>
+        <v>9.999553729604621</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.051412439273491</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>326.0118208894278</v>
+        <v>323.8242114877239</v>
       </c>
       <c r="C263" t="n">
-        <v>1041154858.962188</v>
+        <v>454308974.558964</v>
       </c>
       <c r="D263" t="n">
-        <v>51423455643.06268</v>
+        <v>51152998817.71411</v>
       </c>
       <c r="E263" t="n">
-        <v>9.999553729604695</v>
+        <v>9.617688704752561</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-0.5259405887185875</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>323.8242114877239</v>
+        <v>326.8249027603039</v>
       </c>
       <c r="C264" t="n">
-        <v>454308974.558964</v>
+        <v>576517785.5530643</v>
       </c>
       <c r="D264" t="n">
-        <v>51152998817.71411</v>
+        <v>51599872888.76784</v>
       </c>
       <c r="E264" t="n">
-        <v>9.61768870475264</v>
+        <v>9.355852567245497</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.8736028803437046</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>326.8249027603039</v>
+        <v>322.6977535410197</v>
       </c>
       <c r="C265" t="n">
-        <v>576517785.5530643</v>
+        <v>549648650.1549742</v>
       </c>
       <c r="D265" t="n">
-        <v>51599872888.76784</v>
+        <v>50941464918.84523</v>
       </c>
       <c r="E265" t="n">
-        <v>9.355852567245577</v>
+        <v>9.001185174820931</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-1.275987581097182</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>322.6977535410197</v>
+        <v>322.3089028714367</v>
       </c>
       <c r="C266" t="n">
-        <v>549648650.1549742</v>
+        <v>444617992.2426201</v>
       </c>
       <c r="D266" t="n">
-        <v>50941464918.84523</v>
+        <v>50844724701.01066</v>
       </c>
       <c r="E266" t="n">
-        <v>9.001185174821014</v>
+        <v>8.528219233155312</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.1899046640859048</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>322.3089028714367</v>
+        <v>313.9415685692059</v>
       </c>
       <c r="C267" t="n">
-        <v>444617992.2426201</v>
+        <v>621524860.6649976</v>
       </c>
       <c r="D267" t="n">
-        <v>50844724701.01066</v>
+        <v>49549048278.85516</v>
       </c>
       <c r="E267" t="n">
-        <v>8.528219233155399</v>
+        <v>8.327187467274248</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-2.548300595144615</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>313.9415685692059</v>
+        <v>312.1294017311269</v>
       </c>
       <c r="C268" t="n">
-        <v>621524860.6649976</v>
+        <v>412928463.9964634</v>
       </c>
       <c r="D268" t="n">
-        <v>49549048278.85516</v>
+        <v>49306858317.02498</v>
       </c>
       <c r="E268" t="n">
-        <v>8.327187467274339</v>
+        <v>8.380886355710974</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.4887883223652967</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>312.1294017311269</v>
+        <v>314.5751738652739</v>
       </c>
       <c r="C269" t="n">
-        <v>412928463.9964634</v>
+        <v>610558342.6825503</v>
       </c>
       <c r="D269" t="n">
-        <v>49306858317.02498</v>
+        <v>49662394089.82591</v>
       </c>
       <c r="E269" t="n">
-        <v>8.380886355711063</v>
+        <v>8.542267631286952</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.7210675855982673</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>314.5751738652739</v>
+        <v>307.78799868357</v>
       </c>
       <c r="C270" t="n">
-        <v>610558342.6825503</v>
+        <v>524985558.4976984</v>
       </c>
       <c r="D270" t="n">
-        <v>49662394089.82591</v>
+        <v>48590747015.14539</v>
       </c>
       <c r="E270" t="n">
-        <v>8.542267631287039</v>
+        <v>9.219793210755729</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-2.157864304210155</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>307.78799868357</v>
+        <v>308.6002608026805</v>
       </c>
       <c r="C271" t="n">
-        <v>524985558.4976984</v>
+        <v>603776405.9566348</v>
       </c>
       <c r="D271" t="n">
-        <v>48590747015.14539</v>
+        <v>48690756821.32476</v>
       </c>
       <c r="E271" t="n">
-        <v>9.21979321075581</v>
+        <v>9.732202767812199</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.2058206805262808</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>308.6002608026805</v>
+        <v>311.0392051177708</v>
       </c>
       <c r="C272" t="n">
-        <v>603776405.9566348</v>
+        <v>381183863.9475605</v>
       </c>
       <c r="D272" t="n">
-        <v>48690756821.32476</v>
+        <v>49210307280.17149</v>
       </c>
       <c r="E272" t="n">
-        <v>9.732202767812277</v>
+        <v>10.1224781591295</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1.067041247178113</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>311.0392051177708</v>
+        <v>311.9023438460837</v>
       </c>
       <c r="C273" t="n">
-        <v>381183863.9475605</v>
+        <v>426917645.7935615</v>
       </c>
       <c r="D273" t="n">
-        <v>49210307280.17149</v>
+        <v>49226381036.03188</v>
       </c>
       <c r="E273" t="n">
-        <v>10.12247815912957</v>
+        <v>10.41534797798234</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.03266339258740647</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>311.9023438460837</v>
+        <v>313.9375856517256</v>
       </c>
       <c r="C274" t="n">
-        <v>426917645.7935615</v>
+        <v>434872016.3940915</v>
       </c>
       <c r="D274" t="n">
-        <v>49226381036.03188</v>
+        <v>49558425064.87145</v>
       </c>
       <c r="E274" t="n">
-        <v>10.41534797798241</v>
+        <v>10.50066386577348</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.6745245574655057</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>313.9375856517256</v>
+        <v>311.4592511282243</v>
       </c>
       <c r="C275" t="n">
-        <v>434872016.3940915</v>
+        <v>390805629.9190972</v>
       </c>
       <c r="D275" t="n">
-        <v>49558425064.87145</v>
+        <v>49198400100.68134</v>
       </c>
       <c r="E275" t="n">
-        <v>10.50066386577355</v>
+        <v>9.801846872547616</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-0.7264657093497995</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>311.4592511282243</v>
+        <v>313.9516100120125</v>
       </c>
       <c r="C276" t="n">
-        <v>390805629.9190972</v>
+        <v>431598390.2826202</v>
       </c>
       <c r="D276" t="n">
-        <v>49198400100.68134</v>
+        <v>49564395153.54566</v>
       </c>
       <c r="E276" t="n">
-        <v>9.801846872547692</v>
+        <v>9.425773052328768</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.7439165747571641</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>313.9516100120125</v>
+        <v>309.5006594933494</v>
       </c>
       <c r="C277" t="n">
-        <v>431598390.2826202</v>
+        <v>316671000.3153819</v>
       </c>
       <c r="D277" t="n">
-        <v>49564395153.54566</v>
+        <v>48900502712.38072</v>
       </c>
       <c r="E277" t="n">
-        <v>9.425773052328848</v>
+        <v>8.885935401284428</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-1.339454338357737</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>309.5006594933494</v>
+        <v>308.9792844963675</v>
       </c>
       <c r="C278" t="n">
-        <v>316671000.3153819</v>
+        <v>390450101.440863</v>
       </c>
       <c r="D278" t="n">
-        <v>48900502712.38072</v>
+        <v>48777238815.93024</v>
       </c>
       <c r="E278" t="n">
-        <v>8.885935401284511</v>
+        <v>9.16845382768712</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-0.2520708164811314</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>308.9792844963675</v>
+        <v>310.4705257328921</v>
       </c>
       <c r="C279" t="n">
-        <v>390450101.440863</v>
+        <v>261538250.2763796</v>
       </c>
       <c r="D279" t="n">
-        <v>48777238815.93024</v>
+        <v>49028080180.81345</v>
       </c>
       <c r="E279" t="n">
-        <v>9.168453827687202</v>
+        <v>9.35148319247558</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.5142590498609545</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>310.4705257328921</v>
+        <v>306.5612320832514</v>
       </c>
       <c r="C280" t="n">
-        <v>261538250.2763796</v>
+        <v>328187256.0538177</v>
       </c>
       <c r="D280" t="n">
-        <v>49028080180.81345</v>
+        <v>48421119398.91663</v>
       </c>
       <c r="E280" t="n">
-        <v>9.35148319247566</v>
+        <v>9.699789370577307</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-1.237986026902094</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>306.5612320832514</v>
+        <v>309.2577489066656</v>
       </c>
       <c r="C281" t="n">
-        <v>328187256.0538177</v>
+        <v>419078722.2306527</v>
       </c>
       <c r="D281" t="n">
-        <v>48421119398.91663</v>
+        <v>48826800669.84541</v>
       </c>
       <c r="E281" t="n">
-        <v>9.699789370577383</v>
+        <v>9.617736085683999</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.8378188607879533</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>309.2577489066656</v>
+        <v>313.4586178073911</v>
       </c>
       <c r="C282" t="n">
-        <v>419078722.2306527</v>
+        <v>450626058.7647672</v>
       </c>
       <c r="D282" t="n">
-        <v>48826800669.84541</v>
+        <v>49487912474.3718</v>
       </c>
       <c r="E282" t="n">
-        <v>9.617736085684077</v>
+        <v>9.436979878206435</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1.353993699068412</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>313.4586178073911</v>
+        <v>305.9640462400946</v>
       </c>
       <c r="C283" t="n">
-        <v>450626058.7647672</v>
+        <v>558652434.6663421</v>
       </c>
       <c r="D283" t="n">
-        <v>49487912474.3718</v>
+        <v>48339367034.93587</v>
       </c>
       <c r="E283" t="n">
-        <v>9.436979878206515</v>
+        <v>9.428419709571822</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-2.320860553636672</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>305.9640462400946</v>
+        <v>304.6880643024019</v>
       </c>
       <c r="C284" t="n">
-        <v>558652434.6663421</v>
+        <v>467849342.939638</v>
       </c>
       <c r="D284" t="n">
-        <v>48339367034.93587</v>
+        <v>48114670546.03777</v>
       </c>
       <c r="E284" t="n">
-        <v>9.428419709571902</v>
+        <v>8.854377321798101</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-0.4648312600694648</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>304.6880643024019</v>
+        <v>307.1453631766937</v>
       </c>
       <c r="C285" t="n">
-        <v>467849342.939638</v>
+        <v>79448807.66830647</v>
       </c>
       <c r="D285" t="n">
-        <v>48114670546.03777</v>
+        <v>48475838353.5443</v>
       </c>
       <c r="E285" t="n">
-        <v>8.854377321798186</v>
+        <v>8.644758493473285</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.7506396768547807</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>307.1453631766937</v>
+        <v>307.4540403304417</v>
       </c>
       <c r="C286" t="n">
-        <v>79448807.66830647</v>
+        <v>421897365.4177746</v>
       </c>
       <c r="D286" t="n">
-        <v>48475838353.5443</v>
+        <v>48532513898.69942</v>
       </c>
       <c r="E286" t="n">
-        <v>8.644758493473372</v>
+        <v>8.275435132631475</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.1169150386668427</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>307.4540403304417</v>
+        <v>314.3365132543216</v>
       </c>
       <c r="C287" t="n">
-        <v>421897365.4177746</v>
+        <v>524592983.4087076</v>
       </c>
       <c r="D287" t="n">
-        <v>48532513898.69942</v>
+        <v>49657163876.2715</v>
       </c>
       <c r="E287" t="n">
-        <v>8.275435132631566</v>
+        <v>8.093388866046878</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2.317312430836638</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>314.3365132543216</v>
+        <v>311.5659470891866</v>
       </c>
       <c r="C288" t="n">
-        <v>524592983.4087076</v>
+        <v>753644238.4394339</v>
       </c>
       <c r="D288" t="n">
-        <v>49657163876.2715</v>
+        <v>49223754312.89366</v>
       </c>
       <c r="E288" t="n">
-        <v>8.09338886604697</v>
+        <v>8.012056051398135</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-0.8728036994979149</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>311.5659470891866</v>
+        <v>311.6037345433532</v>
       </c>
       <c r="C289" t="n">
-        <v>753644238.4394339</v>
+        <v>374599802.6073529</v>
       </c>
       <c r="D289" t="n">
-        <v>49223754312.89366</v>
+        <v>49203273430.55764</v>
       </c>
       <c r="E289" t="n">
-        <v>8.012056051398227</v>
+        <v>6.746793954394008</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-0.04160772095080922</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>311.6037345433532</v>
+        <v>307.0113284146113</v>
       </c>
       <c r="C290" t="n">
-        <v>374599802.6073529</v>
+        <v>693972293.3374982</v>
       </c>
       <c r="D290" t="n">
-        <v>49203273430.55764</v>
+        <v>48465020079.37226</v>
       </c>
       <c r="E290" t="n">
-        <v>6.746793954394119</v>
+        <v>6.210740024259361</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-1.500415114102727</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>307.0113284146113</v>
+        <v>304.9813156626682</v>
       </c>
       <c r="C291" t="n">
-        <v>693972293.3374982</v>
+        <v>442629865.1407034</v>
       </c>
       <c r="D291" t="n">
-        <v>48465020079.37226</v>
+        <v>48171977973.12554</v>
       </c>
       <c r="E291" t="n">
-        <v>6.210740024259482</v>
+        <v>6.129797317932473</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-0.6046466209377321</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>304.9813156626682</v>
+        <v>307.2971756266314</v>
       </c>
       <c r="C292" t="n">
-        <v>442629865.1407034</v>
+        <v>495073166.0488124</v>
       </c>
       <c r="D292" t="n">
-        <v>48171977973.12554</v>
+        <v>48523200816.46817</v>
       </c>
       <c r="E292" t="n">
-        <v>6.129797317932596</v>
+        <v>5.63608742195976</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.7291019761292983</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>307.2971756266314</v>
+        <v>306.6583611040192</v>
       </c>
       <c r="C293" t="n">
-        <v>495073166.0488124</v>
+        <v>240928628.697154</v>
       </c>
       <c r="D293" t="n">
-        <v>48523200816.46817</v>
+        <v>48414891022.96105</v>
       </c>
       <c r="E293" t="n">
-        <v>5.636087421959894</v>
+        <v>5.23472695845342</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.2232123843535883</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>306.6583611040192</v>
+        <v>305.5738864105766</v>
       </c>
       <c r="C294" t="n">
-        <v>240928628.697154</v>
+        <v>360130908.1109046</v>
       </c>
       <c r="D294" t="n">
-        <v>48414891022.96105</v>
+        <v>48263423171.78453</v>
       </c>
       <c r="E294" t="n">
-        <v>5.234726958453564</v>
+        <v>4.433771358595056</v>
+      </c>
+      <c r="F294" t="n">
+        <v>-0.3128538513175405</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>305.5738864105766</v>
+        <v>276.9408430478417</v>
       </c>
       <c r="C295" t="n">
-        <v>360130908.1109046</v>
+        <v>1606745004.278988</v>
       </c>
       <c r="D295" t="n">
-        <v>48263423171.78453</v>
+        <v>43725911783.76366</v>
       </c>
       <c r="E295" t="n">
-        <v>4.433771358595226</v>
+        <v>7.151905977780111</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-9.401553163501186</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>276.9408430478417</v>
+        <v>281.4699694949937</v>
       </c>
       <c r="C296" t="n">
-        <v>1606745004.278988</v>
+        <v>1050996255.072424</v>
       </c>
       <c r="D296" t="n">
-        <v>43725911783.76366</v>
+        <v>44409349947.91577</v>
       </c>
       <c r="E296" t="n">
-        <v>7.151905977780217</v>
+        <v>8.328328412325479</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1.563004946659308</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>281.4699694949937</v>
+        <v>259.2252983528142</v>
       </c>
       <c r="C297" t="n">
-        <v>1050996255.072424</v>
+        <v>1054077548.522625</v>
       </c>
       <c r="D297" t="n">
-        <v>44409349947.91577</v>
+        <v>40930547462.14595</v>
       </c>
       <c r="E297" t="n">
-        <v>8.32832841232557</v>
+        <v>12.06270009848614</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-7.833491122589797</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>259.2252983528142</v>
+        <v>262.1680894337532</v>
       </c>
       <c r="C298" t="n">
-        <v>1054077548.522625</v>
+        <v>829003936.0658376</v>
       </c>
       <c r="D298" t="n">
-        <v>40930547462.14595</v>
+        <v>40853889040.89709</v>
       </c>
       <c r="E298" t="n">
-        <v>12.0627000984862</v>
+        <v>14.39027029491231</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-0.1872890200644406</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>262.1680894337532</v>
+        <v>260.405386752611</v>
       </c>
       <c r="C299" t="n">
-        <v>829003936.0658376</v>
+        <v>384002740.6831793</v>
       </c>
       <c r="D299" t="n">
-        <v>40853889040.89709</v>
+        <v>40552592782.85319</v>
       </c>
       <c r="E299" t="n">
-        <v>14.39027029491236</v>
+        <v>16.31189433408748</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-0.7374971272435915</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>260.405386752611</v>
+        <v>239.2653269215326</v>
       </c>
       <c r="C300" t="n">
-        <v>384002740.6831793</v>
+        <v>1868589920.140628</v>
       </c>
       <c r="D300" t="n">
-        <v>40552592782.85319</v>
+        <v>37283948504.24319</v>
       </c>
       <c r="E300" t="n">
-        <v>16.31189433408753</v>
+        <v>19.92567476196021</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-8.060259663574632</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>239.2653269215326</v>
+        <v>235.1992632672292</v>
       </c>
       <c r="C301" t="n">
-        <v>1868589920.140628</v>
+        <v>525352299.1390673</v>
       </c>
       <c r="D301" t="n">
-        <v>37283948504.24319</v>
+        <v>36623672856.15527</v>
       </c>
       <c r="E301" t="n">
-        <v>19.92567476196025</v>
+        <v>23.09917338403626</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-1.770938096893848</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>235.1992632672292</v>
+        <v>231.0663075459132</v>
       </c>
       <c r="C302" t="n">
-        <v>525352299.1390673</v>
+        <v>1726423383.379378</v>
       </c>
       <c r="D302" t="n">
-        <v>36623672856.15527</v>
+        <v>36015676858.41695</v>
       </c>
       <c r="E302" t="n">
-        <v>23.09917338403629</v>
+        <v>25.94049012310557</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-1.660117487741608</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>231.0663075459132</v>
+        <v>243.2521339186774</v>
       </c>
       <c r="C303" t="n">
-        <v>1726423383.379378</v>
+        <v>1417020716.654412</v>
       </c>
       <c r="D303" t="n">
-        <v>36015676858.41695</v>
+        <v>37842271275.50834</v>
       </c>
       <c r="E303" t="n">
-        <v>25.9404901231056</v>
+        <v>27.38431895367485</v>
+      </c>
+      <c r="F303" t="n">
+        <v>5.071664831600975</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>243.2521339186774</v>
+        <v>237.5081834479831</v>
       </c>
       <c r="C304" t="n">
-        <v>1417020716.654412</v>
+        <v>1178173967.523644</v>
       </c>
       <c r="D304" t="n">
-        <v>37842271275.50834</v>
+        <v>37009537059.90849</v>
       </c>
       <c r="E304" t="n">
-        <v>27.38431895367488</v>
+        <v>28.8556116683613</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-2.200539733826168</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>237.5081834479831</v>
+        <v>236.0970581272045</v>
       </c>
       <c r="C305" t="n">
-        <v>1178173967.523644</v>
+        <v>741440221.8516564</v>
       </c>
       <c r="D305" t="n">
-        <v>37009537059.90849</v>
+        <v>36772367138.23349</v>
       </c>
       <c r="E305" t="n">
-        <v>28.85561166836133</v>
+        <v>30.1860095579689</v>
+      </c>
+      <c r="F305" t="n">
+        <v>-0.640834607823082</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>236.0970581272045</v>
+        <v>239.0362703242131</v>
       </c>
       <c r="C306" t="n">
-        <v>741440221.8516564</v>
+        <v>714541857.125214</v>
       </c>
       <c r="D306" t="n">
-        <v>36772367138.23349</v>
+        <v>37264270931.82832</v>
       </c>
       <c r="E306" t="n">
-        <v>30.18600955796892</v>
+        <v>31.02106746751855</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1.337699560503336</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>239.0362703242131</v>
+        <v>244.4266812236501</v>
       </c>
       <c r="C307" t="n">
-        <v>714541857.125214</v>
+        <v>597811857.1066411</v>
       </c>
       <c r="D307" t="n">
-        <v>37264270931.82832</v>
+        <v>38098977837.47002</v>
       </c>
       <c r="E307" t="n">
-        <v>31.02106746751858</v>
+        <v>31.52974455422305</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2.239965749413786</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>244.4266812236501</v>
+        <v>244.0026683184695</v>
       </c>
       <c r="C308" t="n">
-        <v>597811857.1066411</v>
+        <v>462510688.059824</v>
       </c>
       <c r="D308" t="n">
-        <v>38098977837.47002</v>
+        <v>38024105466.61209</v>
       </c>
       <c r="E308" t="n">
-        <v>31.52974455422308</v>
+        <v>31.91082313696432</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-0.1965206814139142</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>244.0026683184695</v>
+        <v>242.7407263108344</v>
       </c>
       <c r="C309" t="n">
-        <v>462510688.059824</v>
+        <v>385774255.0302226</v>
       </c>
       <c r="D309" t="n">
-        <v>38024105466.61209</v>
+        <v>37828280143.08363</v>
       </c>
       <c r="E309" t="n">
-        <v>31.91082313696434</v>
+        <v>32.13462432659625</v>
+      </c>
+      <c r="F309" t="n">
+        <v>-0.5150031042818748</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>242.7407263108344</v>
+        <v>247.3227789136715</v>
       </c>
       <c r="C310" t="n">
-        <v>385774255.0302226</v>
+        <v>590268488.2751402</v>
       </c>
       <c r="D310" t="n">
-        <v>37828280143.08363</v>
+        <v>38506222392.05785</v>
       </c>
       <c r="E310" t="n">
-        <v>32.13462432659628</v>
+        <v>32.17376247410424</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1.792157207279699</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>247.3227789136715</v>
+        <v>249.3582360058018</v>
       </c>
       <c r="C311" t="n">
-        <v>590268488.2751402</v>
+        <v>913007771.1265166</v>
       </c>
       <c r="D311" t="n">
-        <v>38506222392.05785</v>
+        <v>38934049356.3878</v>
       </c>
       <c r="E311" t="n">
-        <v>32.17376247410427</v>
+        <v>31.93304628248642</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1.111059298349115</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>249.3582360058018</v>
+        <v>240.918042609455</v>
       </c>
       <c r="C312" t="n">
-        <v>913007771.1265166</v>
+        <v>1079592073.664742</v>
       </c>
       <c r="D312" t="n">
-        <v>38934049356.3878</v>
+        <v>37565674019.61208</v>
       </c>
       <c r="E312" t="n">
-        <v>31.93304628248644</v>
+        <v>31.63214583285985</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-3.514598043091077</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>240.918042609455</v>
+        <v>244.2997245266534</v>
       </c>
       <c r="C313" t="n">
-        <v>1079592073.664742</v>
+        <v>635733745.49581</v>
       </c>
       <c r="D313" t="n">
-        <v>37565674019.61208</v>
+        <v>38082414938.90012</v>
       </c>
       <c r="E313" t="n">
-        <v>31.63214583285988</v>
+        <v>31.36186890837203</v>
+      </c>
+      <c r="F313" t="n">
+        <v>1.37556674483803</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>244.2997245266534</v>
+        <v>236.5065111645615</v>
       </c>
       <c r="C314" t="n">
-        <v>635733745.49581</v>
+        <v>737502799.6817774</v>
       </c>
       <c r="D314" t="n">
-        <v>38082414938.90012</v>
+        <v>36863106029.2413</v>
       </c>
       <c r="E314" t="n">
-        <v>31.36186890837206</v>
+        <v>31.23920709175674</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-3.201763626637377</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>236.5065111645615</v>
+        <v>238.7396272463914</v>
       </c>
       <c r="C315" t="n">
-        <v>737502799.6817774</v>
+        <v>508529258.4997404</v>
       </c>
       <c r="D315" t="n">
-        <v>36863106029.2413</v>
+        <v>37187182852.20904</v>
       </c>
       <c r="E315" t="n">
-        <v>31.23920709175676</v>
+        <v>30.76330159742569</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.8791359651318054</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>238.7396272463914</v>
+        <v>236.1703191781432</v>
       </c>
       <c r="C316" t="n">
-        <v>508529258.4997404</v>
+        <v>515948271.8866906</v>
       </c>
       <c r="D316" t="n">
-        <v>37187182852.20904</v>
+        <v>36760211282.02583</v>
       </c>
       <c r="E316" t="n">
-        <v>30.76330159742571</v>
+        <v>30.16194979709012</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-1.148168636167179</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>236.1703191781432</v>
+        <v>237.4963406851648</v>
       </c>
       <c r="C317" t="n">
-        <v>515948271.8866906</v>
+        <v>371893026.7501851</v>
       </c>
       <c r="D317" t="n">
-        <v>36760211282.02583</v>
+        <v>36994157124.10886</v>
       </c>
       <c r="E317" t="n">
-        <v>30.16194979709015</v>
+        <v>28.90359040572308</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.6364104936399606</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>237.4963406851648</v>
+        <v>230.4980397149236</v>
       </c>
       <c r="C318" t="n">
-        <v>371893026.7501851</v>
+        <v>648131603.0013635</v>
       </c>
       <c r="D318" t="n">
-        <v>36994157124.10886</v>
+        <v>35938618431.36102</v>
       </c>
       <c r="E318" t="n">
-        <v>28.90359040572311</v>
+        <v>27.74160580934861</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-2.853257851521507</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>230.4980397149236</v>
+        <v>233.4062024955106</v>
       </c>
       <c r="C319" t="n">
-        <v>648131603.0013635</v>
+        <v>465187400.1481324</v>
       </c>
       <c r="D319" t="n">
-        <v>35938618431.36102</v>
+        <v>36395478143.66526</v>
       </c>
       <c r="E319" t="n">
-        <v>27.74160580934864</v>
+        <v>26.15047956395134</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1.27122224572096</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>233.4062024955106</v>
+        <v>240.5154410017741</v>
       </c>
       <c r="C320" t="n">
-        <v>465187400.1481324</v>
+        <v>955712809.2756666</v>
       </c>
       <c r="D320" t="n">
-        <v>36395478143.66526</v>
+        <v>37477654423.35957</v>
       </c>
       <c r="E320" t="n">
-        <v>26.15047956395137</v>
+        <v>24.37416528962048</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2.973381131091579</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>240.5154410017741</v>
+        <v>247.346428390404</v>
       </c>
       <c r="C321" t="n">
-        <v>955712809.2756666</v>
+        <v>835243070.6153741</v>
       </c>
       <c r="D321" t="n">
-        <v>37477654423.35957</v>
+        <v>38509201810.49287</v>
       </c>
       <c r="E321" t="n">
-        <v>24.37416528962051</v>
+        <v>22.32816461995078</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2.752433157850831</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>247.346428390404</v>
+        <v>245.6309071884474</v>
       </c>
       <c r="C322" t="n">
-        <v>835243070.6153741</v>
+        <v>740730697.0915143</v>
       </c>
       <c r="D322" t="n">
-        <v>38509201810.49287</v>
+        <v>38268730396.45445</v>
       </c>
       <c r="E322" t="n">
-        <v>22.32816461995082</v>
+        <v>19.66157598289724</v>
+      </c>
+      <c r="F322" t="n">
+        <v>-0.624451826401895</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>245.6309071884474</v>
+        <v>246.0322983916053</v>
       </c>
       <c r="C323" t="n">
-        <v>740730697.0915143</v>
+        <v>947724682.4708505</v>
       </c>
       <c r="D323" t="n">
-        <v>38268730396.45445</v>
+        <v>38332613582.64827</v>
       </c>
       <c r="E323" t="n">
-        <v>19.66157598289728</v>
+        <v>16.38509469670966</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.1669331214597447</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>246.0322983916053</v>
+        <v>242.477384029452</v>
       </c>
       <c r="C324" t="n">
-        <v>947724682.4708505</v>
+        <v>644743245.5151817</v>
       </c>
       <c r="D324" t="n">
-        <v>38332613582.64827</v>
+        <v>37810940338.58492</v>
       </c>
       <c r="E324" t="n">
-        <v>16.38509469670971</v>
+        <v>12.11088622987605</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-1.360912276275072</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>242.477384029452</v>
+        <v>238.862606815231</v>
       </c>
       <c r="C325" t="n">
-        <v>644743245.5151817</v>
+        <v>608494036.1527718</v>
       </c>
       <c r="D325" t="n">
-        <v>37810940338.58492</v>
+        <v>37284825811.10757</v>
       </c>
       <c r="E325" t="n">
-        <v>12.11088622987611</v>
+        <v>10.5396453680133</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-1.391434655594825</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>238.862606815231</v>
+        <v>232.4962719085363</v>
       </c>
       <c r="C326" t="n">
-        <v>608494036.1527718</v>
+        <v>694188233.9790171</v>
       </c>
       <c r="D326" t="n">
-        <v>37284825811.10757</v>
+        <v>36245958961.43349</v>
       </c>
       <c r="E326" t="n">
-        <v>10.53964536801337</v>
+        <v>7.969544498478134</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-2.786299324387842</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>232.4962719085363</v>
+        <v>235.3388925856646</v>
       </c>
       <c r="C327" t="n">
-        <v>694188233.9790171</v>
+        <v>494404951.4986446</v>
       </c>
       <c r="D327" t="n">
-        <v>36245958961.43349</v>
+        <v>36669054074.67473</v>
       </c>
       <c r="E327" t="n">
-        <v>7.969544498478228</v>
+        <v>7.368316357852448</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1.167289058875265</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>235.3388925856646</v>
+        <v>236.1554319712681</v>
       </c>
       <c r="C328" t="n">
-        <v>494404951.4986446</v>
+        <v>338013187.9951412</v>
       </c>
       <c r="D328" t="n">
-        <v>36669054074.67473</v>
+        <v>36802926316.85087</v>
       </c>
       <c r="E328" t="n">
-        <v>7.36831635785255</v>
+        <v>6.275797730777133</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.365082344102774</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>236.1554319712681</v>
+        <v>234.1404188908569</v>
       </c>
       <c r="C329" t="n">
-        <v>338013187.9951412</v>
+        <v>280162182.0992895</v>
       </c>
       <c r="D329" t="n">
-        <v>36802926316.85087</v>
+        <v>36475495886.20578</v>
       </c>
       <c r="E329" t="n">
-        <v>6.275797730777253</v>
+        <v>5.116424069024943</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-0.8896858576573852</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>234.1404188908569</v>
+        <v>245.439298226011</v>
       </c>
       <c r="C330" t="n">
-        <v>280162182.0992895</v>
+        <v>1172157950.552947</v>
       </c>
       <c r="D330" t="n">
-        <v>36475495886.20578</v>
+        <v>38198672256.78109</v>
       </c>
       <c r="E330" t="n">
-        <v>5.116424069025091</v>
+        <v>5.227803305164525</v>
+      </c>
+      <c r="F330" t="n">
+        <v>4.724202724895576</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>245.439298226011</v>
+        <v>248.3983561541644</v>
       </c>
       <c r="C331" t="n">
-        <v>1172157950.552947</v>
+        <v>721813129.8434688</v>
       </c>
       <c r="D331" t="n">
-        <v>38198672256.78109</v>
+        <v>38718584412.54342</v>
       </c>
       <c r="E331" t="n">
-        <v>5.22780330516467</v>
+        <v>5.38472525423764</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1.361073893530507</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>248.3983561541644</v>
+        <v>244.2686153478693</v>
       </c>
       <c r="C332" t="n">
-        <v>721813129.8434688</v>
+        <v>598038429.2310176</v>
       </c>
       <c r="D332" t="n">
-        <v>38718584412.54342</v>
+        <v>38043237563.26991</v>
       </c>
       <c r="E332" t="n">
-        <v>5.384725254237781</v>
+        <v>5.147694463068899</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-1.744244681256268</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>244.2686153478693</v>
+        <v>255.7882914766138</v>
       </c>
       <c r="C333" t="n">
-        <v>598038429.2310176</v>
+        <v>1027295132.967502</v>
       </c>
       <c r="D333" t="n">
-        <v>38043237563.26991</v>
+        <v>39815488719.20244</v>
       </c>
       <c r="E333" t="n">
-        <v>5.147694463069046</v>
+        <v>5.831362374999429</v>
+      </c>
+      <c r="F333" t="n">
+        <v>4.658518226754715</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>255.7882914766138</v>
+        <v>247.6958542665334</v>
       </c>
       <c r="C334" t="n">
-        <v>1027295132.967502</v>
+        <v>1079333379.497271</v>
       </c>
       <c r="D334" t="n">
-        <v>39815488719.20244</v>
+        <v>38561494027.78192</v>
       </c>
       <c r="E334" t="n">
-        <v>5.831362374999558</v>
+        <v>5.914207841427054</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-3.149514753578131</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>247.6958542665334</v>
+        <v>251.0929864734874</v>
       </c>
       <c r="C335" t="n">
-        <v>1079333379.497271</v>
+        <v>404846237.1015673</v>
       </c>
       <c r="D335" t="n">
-        <v>38561494027.78192</v>
+        <v>39137854035.67657</v>
       </c>
       <c r="E335" t="n">
-        <v>5.914207841427181</v>
+        <v>6.083014260226641</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1.49465165296605</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>251.0929864734874</v>
+        <v>242.7494914153577</v>
       </c>
       <c r="C336" t="n">
-        <v>404846237.1015673</v>
+        <v>473714439.5384721</v>
       </c>
       <c r="D336" t="n">
-        <v>39137854035.67657</v>
+        <v>37826816987.01722</v>
       </c>
       <c r="E336" t="n">
-        <v>6.083014260226765</v>
+        <v>6.060751376487716</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-3.349792882012015</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>242.7494914153577</v>
+        <v>244.1971678744466</v>
       </c>
       <c r="C337" t="n">
-        <v>473714439.5384721</v>
+        <v>760807494.6422009</v>
       </c>
       <c r="D337" t="n">
-        <v>37826816987.01722</v>
+        <v>38049123458.50378</v>
       </c>
       <c r="E337" t="n">
-        <v>6.060751376487841</v>
+        <v>6.057740380601601</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.5876954213801966</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>244.1971678744466</v>
+        <v>240.2709304508468</v>
       </c>
       <c r="C338" t="n">
-        <v>760807494.6422009</v>
+        <v>892907015.8444617</v>
       </c>
       <c r="D338" t="n">
-        <v>38049123458.50378</v>
+        <v>37417448510.97536</v>
       </c>
       <c r="E338" t="n">
-        <v>6.057740380601725</v>
+        <v>6.053572266948138</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-1.660156371847377</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>240.2709304508468</v>
+        <v>241.3327728931399</v>
       </c>
       <c r="C339" t="n">
-        <v>892907015.8444617</v>
+        <v>505922068.9400989</v>
       </c>
       <c r="D339" t="n">
-        <v>37417448510.97536</v>
+        <v>37593967247.68211</v>
       </c>
       <c r="E339" t="n">
-        <v>6.053572266948263</v>
+        <v>6.052114350617882</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.471755140265584</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>241.3327728931399</v>
+        <v>242.6247771967082</v>
       </c>
       <c r="C340" t="n">
-        <v>505922068.9400989</v>
+        <v>521480007.3588299</v>
       </c>
       <c r="D340" t="n">
-        <v>37593967247.68211</v>
+        <v>37843358630.96654</v>
       </c>
       <c r="E340" t="n">
-        <v>6.052114350618005</v>
+        <v>5.96528521111983</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.6633813921296028</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>242.6247771967082</v>
+        <v>243.7688418945168</v>
       </c>
       <c r="C341" t="n">
-        <v>521480007.3588299</v>
+        <v>385301778.8201492</v>
       </c>
       <c r="D341" t="n">
-        <v>37843358630.96654</v>
+        <v>37980302697.91931</v>
       </c>
       <c r="E341" t="n">
-        <v>5.965285211119956</v>
+        <v>5.802092408427482</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.3618708061517539</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>243.7688418945168</v>
+        <v>240.5378522724891</v>
       </c>
       <c r="C342" t="n">
-        <v>385301778.8201492</v>
+        <v>253197293.5786539</v>
       </c>
       <c r="D342" t="n">
-        <v>37980302697.91931</v>
+        <v>37472378595.41572</v>
       </c>
       <c r="E342" t="n">
-        <v>5.802092408427612</v>
+        <v>5.803796579698099</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-1.337335582982124</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>240.5378522724891</v>
+        <v>242.3814244321338</v>
       </c>
       <c r="C343" t="n">
-        <v>253197293.5786539</v>
+        <v>231161705.9781287</v>
       </c>
       <c r="D343" t="n">
-        <v>37472378595.41572</v>
+        <v>37776073344.16821</v>
       </c>
       <c r="E343" t="n">
-        <v>5.803796579698229</v>
+        <v>5.782139720988559</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.8104496168536368</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>242.3814244321338</v>
+        <v>238.965494449775</v>
       </c>
       <c r="C344" t="n">
-        <v>231161705.9781287</v>
+        <v>512795353.2773615</v>
       </c>
       <c r="D344" t="n">
-        <v>37776073344.16821</v>
+        <v>37216163716.00345</v>
       </c>
       <c r="E344" t="n">
-        <v>5.78213972098869</v>
+        <v>5.727372581611783</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-1.482180593688398</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>238.965494449775</v>
+        <v>237.7303472294603</v>
       </c>
       <c r="C345" t="n">
-        <v>512795353.2773615</v>
+        <v>359635865.7320736</v>
       </c>
       <c r="D345" t="n">
-        <v>37216163716.00345</v>
+        <v>37048219779.90353</v>
       </c>
       <c r="E345" t="n">
-        <v>5.727372581611914</v>
+        <v>5.747039954538946</v>
+      </c>
+      <c r="F345" t="n">
+        <v>-0.4512661148566965</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>237.7303472294603</v>
+        <v>239.0200917151034</v>
       </c>
       <c r="C346" t="n">
-        <v>359635865.7320736</v>
+        <v>397845092.5820036</v>
       </c>
       <c r="D346" t="n">
-        <v>37048219779.90353</v>
+        <v>36768425085.16792</v>
       </c>
       <c r="E346" t="n">
-        <v>5.747039954539076</v>
+        <v>5.679744710531552</v>
+      </c>
+      <c r="F346" t="n">
+        <v>-0.7552176498569318</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>239.0200917151034</v>
+        <v>240.417366595843</v>
       </c>
       <c r="C347" t="n">
-        <v>397845092.5820036</v>
+        <v>385232386.4664915</v>
       </c>
       <c r="D347" t="n">
-        <v>36768425085.16792</v>
+        <v>36977719013.43642</v>
       </c>
       <c r="E347" t="n">
-        <v>5.679744710531685</v>
+        <v>5.632604523270061</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.5692219010841937</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>240.417366595843</v>
+        <v>241.8578254800437</v>
       </c>
       <c r="C348" t="n">
-        <v>385232386.4664915</v>
+        <v>300272976.7934694</v>
       </c>
       <c r="D348" t="n">
-        <v>36977719013.43642</v>
+        <v>37222279132.88286</v>
       </c>
       <c r="E348" t="n">
-        <v>5.632604523270194</v>
+        <v>5.223869154913134</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.6613715663682962</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>241.8578254800437</v>
+        <v>242.5563254026864</v>
       </c>
       <c r="C349" t="n">
-        <v>300272976.7934694</v>
+        <v>251740436.6290865</v>
       </c>
       <c r="D349" t="n">
-        <v>37222279132.88286</v>
+        <v>37306014277.37948</v>
       </c>
       <c r="E349" t="n">
-        <v>5.223869154913277</v>
+        <v>4.963547559224112</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.2249597457417485</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>242.5563254026864</v>
+        <v>242.5403316925359</v>
       </c>
       <c r="C350" t="n">
-        <v>251740436.6290865</v>
+        <v>314019546.7834789</v>
       </c>
       <c r="D350" t="n">
-        <v>37306014277.37948</v>
+        <v>37315750968.66272</v>
       </c>
       <c r="E350" t="n">
-        <v>4.963547559224263</v>
+        <v>4.951685865948973</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.02609952167724749</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>242.5403316925359</v>
+        <v>241.1935569646652</v>
       </c>
       <c r="C351" t="n">
-        <v>314019546.7834789</v>
+        <v>418086969.3925527</v>
       </c>
       <c r="D351" t="n">
-        <v>37315750968.66272</v>
+        <v>37107293025.99197</v>
       </c>
       <c r="E351" t="n">
-        <v>4.951685865949125</v>
+        <v>4.866600541405424</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-0.5586325807721448</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>241.1935569646652</v>
+        <v>247.4287365213036</v>
       </c>
       <c r="C352" t="n">
-        <v>418086969.3925527</v>
+        <v>854382518.1098098</v>
       </c>
       <c r="D352" t="n">
-        <v>37107293025.99197</v>
+        <v>37997425239.52763</v>
       </c>
       <c r="E352" t="n">
-        <v>4.866600541405578</v>
+        <v>4.921086139519102</v>
+      </c>
+      <c r="F352" t="n">
+        <v>2.39880665213752</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>247.4287365213036</v>
+        <v>240.3790076127766</v>
       </c>
       <c r="C353" t="n">
-        <v>854382518.1098098</v>
+        <v>750233247.9259268</v>
       </c>
       <c r="D353" t="n">
-        <v>37997425239.52763</v>
+        <v>37035182390.95963</v>
       </c>
       <c r="E353" t="n">
-        <v>4.921086139519255</v>
+        <v>4.879666074591603</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-2.532389609301755</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>240.3790076127766</v>
+        <v>241.1437874544664</v>
       </c>
       <c r="C354" t="n">
-        <v>750233247.9259268</v>
+        <v>390117777.861903</v>
       </c>
       <c r="D354" t="n">
-        <v>37035182390.95963</v>
+        <v>37132273836.48571</v>
       </c>
       <c r="E354" t="n">
-        <v>4.879666074591757</v>
+        <v>4.881902944397746</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.2621600307003646</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>241.1437874544664</v>
+        <v>241.4922075598172</v>
       </c>
       <c r="C355" t="n">
-        <v>390117777.861903</v>
+        <v>359584156.0298494</v>
       </c>
       <c r="D355" t="n">
-        <v>37132273836.48571</v>
+        <v>37114346769.65236</v>
       </c>
       <c r="E355" t="n">
-        <v>4.881902944397901</v>
+        <v>4.846630180884462</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-0.04827893630294788</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>241.4922075598172</v>
+        <v>242.8819700099681</v>
       </c>
       <c r="C356" t="n">
-        <v>359584156.0298494</v>
+        <v>251536722.0782872</v>
       </c>
       <c r="D356" t="n">
-        <v>37114346769.65236</v>
+        <v>37367854737.81706</v>
       </c>
       <c r="E356" t="n">
-        <v>4.846630180884617</v>
+        <v>4.494097661047717</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.6830457497691844</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>242.8819700099681</v>
+        <v>242.5749980562909</v>
       </c>
       <c r="C357" t="n">
-        <v>251536722.0782872</v>
+        <v>372359290.6820566</v>
       </c>
       <c r="D357" t="n">
-        <v>37367854737.81706</v>
+        <v>37324600944.7933</v>
       </c>
       <c r="E357" t="n">
-        <v>4.494097661047884</v>
+        <v>4.28821058284208</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-0.1157513411654154</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>242.5749980562909</v>
+        <v>241.7384246505887</v>
       </c>
       <c r="C358" t="n">
-        <v>372359290.6820566</v>
+        <v>410120374.0576311</v>
       </c>
       <c r="D358" t="n">
-        <v>37324600944.7933</v>
+        <v>37176907148.64268</v>
       </c>
       <c r="E358" t="n">
-        <v>4.288210582842256</v>
+        <v>4.111878807532515</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-0.3957009382875021</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>241.7384246505887</v>
+        <v>245.1794274894183</v>
       </c>
       <c r="C359" t="n">
-        <v>410120374.0576311</v>
+        <v>470639117.9081405</v>
       </c>
       <c r="D359" t="n">
-        <v>37176907148.64268</v>
+        <v>37713239950.15089</v>
       </c>
       <c r="E359" t="n">
-        <v>4.111878807532698</v>
+        <v>3.782952812166787</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1.44265040489735</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>245.1794274894183</v>
+        <v>244.0103148283608</v>
       </c>
       <c r="C360" t="n">
-        <v>470639117.9081405</v>
+        <v>401504275.2124687</v>
       </c>
       <c r="D360" t="n">
-        <v>37713239950.15089</v>
+        <v>37541806213.86826</v>
       </c>
       <c r="E360" t="n">
-        <v>3.782952812166986</v>
+        <v>3.763445664901533</v>
+      </c>
+      <c r="F360" t="n">
+        <v>-0.4545717538700811</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>244.0103148283608</v>
+        <v>241.2319119151888</v>
       </c>
       <c r="C361" t="n">
-        <v>401504275.2124687</v>
+        <v>339047442.161706</v>
       </c>
       <c r="D361" t="n">
-        <v>37541806213.86826</v>
+        <v>37112194985.21986</v>
       </c>
       <c r="E361" t="n">
-        <v>3.763445664901733</v>
+        <v>3.648262022827243</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-1.144354179980001</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>241.2319119151888</v>
+        <v>239.5958218325956</v>
       </c>
       <c r="C362" t="n">
-        <v>339047442.161706</v>
+        <v>363763402.7761661</v>
       </c>
       <c r="D362" t="n">
-        <v>37112194985.21986</v>
+        <v>36864812015.19563</v>
       </c>
       <c r="E362" t="n">
-        <v>3.648262022827449</v>
+        <v>3.690342837773269</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.666581349129991</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>239.5958218325956</v>
+        <v>240.0884451308951</v>
       </c>
       <c r="C363" t="n">
-        <v>363763402.7761661</v>
+        <v>195205362.1838858</v>
       </c>
       <c r="D363" t="n">
-        <v>36864812015.19563</v>
+        <v>36943552949.5638</v>
       </c>
       <c r="E363" t="n">
-        <v>3.690342837773473</v>
+        <v>2.790234876877293</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.2135937498764617</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>240.0884451308951</v>
+        <v>240.0307924515502</v>
       </c>
       <c r="C364" t="n">
-        <v>195205362.1838858</v>
+        <v>230763796.0344269</v>
       </c>
       <c r="D364" t="n">
-        <v>36943552949.5638</v>
+        <v>36913820931.58021</v>
       </c>
       <c r="E364" t="n">
-        <v>2.790234876877563</v>
+        <v>2.624081040366859</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-0.08047958469014072</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>240.0307924515502</v>
+        <v>240.3580561225457</v>
       </c>
       <c r="C365" t="n">
-        <v>230763796.0344269</v>
+        <v>323212804.6324776</v>
       </c>
       <c r="D365" t="n">
-        <v>36913820931.58021</v>
+        <v>36970232010.6806</v>
       </c>
       <c r="E365" t="n">
-        <v>2.624081040367146</v>
+        <v>2.005043613883777</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.1528183148662654</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>240.3580561225457</v>
+        <v>236.6072849676196</v>
       </c>
       <c r="C366" t="n">
-        <v>323212804.6324776</v>
+        <v>480198153.7569262</v>
       </c>
       <c r="D366" t="n">
-        <v>36970232010.6806</v>
+        <v>36440851751.89979</v>
       </c>
       <c r="E366" t="n">
-        <v>2.005043613884153</v>
+        <v>2.196133860939893</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-1.431909484982052</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.30626157407</v>
+        <v>45154.54467592593</v>
       </c>
       <c r="B367" t="n">
-        <v>239.2146697840376</v>
+        <v>233.5858219235213</v>
       </c>
       <c r="C367" t="n">
-        <v>295592970.1281261</v>
+        <v>518537641.1710274</v>
       </c>
       <c r="D367" t="n">
-        <v>36804951820.90225</v>
+        <v>35946751298.60204</v>
       </c>
       <c r="E367" t="n">
-        <v>2.043279203081244</v>
+        <v>2.565435048312141</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-1.35589710323385</v>
       </c>
     </row>
   </sheetData>
